--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30920" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30924" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
@@ -381,33 +381,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -457,7 +456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -505,56 +504,6 @@
       </c>
       <c r="P2">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.7</v>
-      </c>
-      <c r="O3">
-        <v>0.1</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -1,25 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Aspiration\data\excel_source\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30920" windowHeight="7830"/>
+    <workbookView windowWidth="30240" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Exo_ScenarioPara" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>agent_num</t>
+  </si>
+  <si>
+    <t>market_strategy</t>
+  </si>
+  <si>
+    <t>market_profit_mean</t>
+  </si>
+  <si>
+    <t>market_profit_sigma</t>
+  </si>
+  <si>
+    <t>aspiration_update_strategy</t>
+  </si>
+  <si>
+    <t>historical_aspiration_update_param</t>
+  </si>
+  <si>
+    <t>social_aspiration_update_param</t>
+  </si>
+  <si>
+    <t>initial_technology</t>
+  </si>
   <si>
     <t>sigma_exploitation</t>
   </si>
@@ -30,40 +55,7 @@
     <t>sigma_exploration</t>
   </si>
   <si>
-    <t>market_profit_mean</t>
-  </si>
-  <si>
-    <t>market_profit_sigma</t>
-  </si>
-  <si>
-    <t>initial_technology</t>
-  </si>
-  <si>
-    <t>number_of_run</t>
-  </si>
-  <si>
-    <t>periods</t>
-  </si>
-  <si>
-    <t>agent_num</t>
-  </si>
-  <si>
     <t>imitation_share</t>
-  </si>
-  <si>
-    <t>historical_aspiration_update_param</t>
-  </si>
-  <si>
-    <t>social_aspiration_update_param</t>
-  </si>
-  <si>
-    <t>aspiration_update_strategy</t>
-  </si>
-  <si>
-    <t>market_strategy</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>imitation_fail_rate</t>
@@ -72,22 +64,366 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,24 +431,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -196,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -370,195 +992,179 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="4" width="18.546875" customWidth="1"/>
+    <col min="5" max="5" width="19.546875" customWidth="1"/>
+    <col min="6" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="29.8203125" customWidth="1"/>
+    <col min="9" max="9" width="26.8203125" customWidth="1"/>
+    <col min="10" max="10" width="15.546875" customWidth="1"/>
+    <col min="11" max="11" width="16.546875" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="16.2734375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.7</v>
+      </c>
+      <c r="N2">
         <v>0.1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.7</v>
-      </c>
       <c r="O2">
-        <v>0.1</v>
-      </c>
-      <c r="P2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.4</v>
-      </c>
       <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.7</v>
+      </c>
+      <c r="N3">
         <v>0.1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.7</v>
-      </c>
       <c r="O3">
-        <v>0.1</v>
-      </c>
-      <c r="P3">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -500,13 +500,13 @@
         <v>0.8</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0.1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P2">
         <v>0.1</v>
@@ -515,7 +515,7 @@
         <v>0.9</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -386,7 +386,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -500,13 +500,13 @@
         <v>0.8</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>0.1</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>0.1</v>
@@ -515,7 +515,7 @@
         <v>0.9</v>
       </c>
       <c r="R2">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\ABM4ALL\Melodie\examples\Aspiration\data\excel_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30240" windowHeight="13044"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30240" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -412,34 +412,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R251"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11557,7 +11555,7 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196">
-        <f t="shared" ref="A196:A251" si="3">A195+1</f>
+        <f t="shared" ref="A196:A257" si="3">A195+1</f>
         <v>194</v>
       </c>
       <c r="B196">
@@ -14745,6 +14743,348 @@
       </c>
       <c r="R251">
         <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>100</v>
+      </c>
+      <c r="C252">
+        <v>50</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>0.2</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0.5</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0.8</v>
+      </c>
+      <c r="M252">
+        <v>100</v>
+      </c>
+      <c r="N252">
+        <v>0.1</v>
+      </c>
+      <c r="O252">
+        <v>2</v>
+      </c>
+      <c r="P252">
+        <v>0.1</v>
+      </c>
+      <c r="Q252">
+        <v>0.9</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>100</v>
+      </c>
+      <c r="C253">
+        <v>50</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>0.2</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0.5</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0.8</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253">
+        <v>0.1</v>
+      </c>
+      <c r="O253">
+        <v>100</v>
+      </c>
+      <c r="P253">
+        <v>0.1</v>
+      </c>
+      <c r="Q253">
+        <v>0.9</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>100</v>
+      </c>
+      <c r="C254">
+        <v>50</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>0.2</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0.5</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0.8</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>0.1</v>
+      </c>
+      <c r="O254">
+        <v>2</v>
+      </c>
+      <c r="P254">
+        <v>0.1</v>
+      </c>
+      <c r="Q254">
+        <v>0.9</v>
+      </c>
+      <c r="R254">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>100</v>
+      </c>
+      <c r="C255">
+        <v>50</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>0.2</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0.5</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0.8</v>
+      </c>
+      <c r="M255">
+        <v>100</v>
+      </c>
+      <c r="N255">
+        <v>0.1</v>
+      </c>
+      <c r="O255">
+        <v>2</v>
+      </c>
+      <c r="P255">
+        <v>0.1</v>
+      </c>
+      <c r="Q255">
+        <v>0.9</v>
+      </c>
+      <c r="R255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>100</v>
+      </c>
+      <c r="C256">
+        <v>50</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>0.2</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0.5</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0.8</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>0.1</v>
+      </c>
+      <c r="O256">
+        <v>100</v>
+      </c>
+      <c r="P256">
+        <v>0.1</v>
+      </c>
+      <c r="Q256">
+        <v>0.9</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>100</v>
+      </c>
+      <c r="C257">
+        <v>50</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>0.2</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>0.5</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0.8</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>0.1</v>
+      </c>
+      <c r="O257">
+        <v>2</v>
+      </c>
+      <c r="P257">
+        <v>0.1</v>
+      </c>
+      <c r="Q257">
+        <v>0.9</v>
+      </c>
+      <c r="R257">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="30240" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -123,35 +123,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R251" totalsRowShown="0">
-  <autoFilter ref="A1:R251"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="id">
-      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="periods"/>
-    <tableColumn id="3" name="agent_num"/>
-    <tableColumn id="4" name="market_strategy"/>
-    <tableColumn id="5" name="market_profit_mean"/>
-    <tableColumn id="6" name="market_profit_sigma"/>
-    <tableColumn id="7" name="aspiration_update_strategy"/>
-    <tableColumn id="8" name="historical_aspiration_update_param"/>
-    <tableColumn id="9" name="social_aspiration_update_param"/>
-    <tableColumn id="10" name="initial_technology"/>
-    <tableColumn id="11" name="mean_exploration"/>
-    <tableColumn id="12" name="sigma_exploration"/>
-    <tableColumn id="13" name="cost_exploration"/>
-    <tableColumn id="14" name="sigma_exploitation"/>
-    <tableColumn id="15" name="cost_exploitation"/>
-    <tableColumn id="16" name="imitation_share"/>
-    <tableColumn id="17" name="imitation_fail_rate"/>
-    <tableColumn id="18" name="cost_imitation"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,33 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R257"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -554,7 +505,6 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3">
@@ -611,7 +561,6 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -668,7 +617,6 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -725,7 +673,6 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -782,7 +729,6 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -839,7 +785,6 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -896,7 +841,6 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -953,7 +897,6 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -1010,7 +953,6 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -1067,7 +1009,6 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -1124,7 +1065,6 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -1181,7 +1121,6 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -1238,7 +1177,6 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -1295,7 +1233,6 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -1352,7 +1289,6 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -1409,7 +1345,6 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -1466,7 +1401,6 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1523,7 +1457,6 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -1580,7 +1513,6 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -1637,7 +1569,6 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -1694,7 +1625,6 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -1751,7 +1681,6 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -1808,7 +1737,6 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -1865,7 +1793,6 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -1922,7 +1849,6 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -1979,7 +1905,6 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -2036,7 +1961,6 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -2093,7 +2017,6 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -2150,7 +2073,6 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -2207,7 +2129,6 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -2264,7 +2185,6 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -2321,7 +2241,6 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -2378,7 +2297,6 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -2435,7 +2353,6 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -2492,7 +2409,6 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -2549,7 +2465,6 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -2606,7 +2521,6 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -2663,7 +2577,6 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -2720,7 +2633,6 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -2777,7 +2689,6 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -2834,7 +2745,6 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -2891,7 +2801,6 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44">
@@ -2948,7 +2857,6 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45">
@@ -3005,7 +2913,6 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46">
@@ -3062,7 +2969,6 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47">
@@ -3119,7 +3025,6 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48">
@@ -3176,7 +3081,6 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49">
@@ -3233,7 +3137,6 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50">
@@ -3290,7 +3193,6 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51">
@@ -3347,7 +3249,6 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52">
@@ -3404,7 +3305,6 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53">
@@ -3461,7 +3361,6 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54">
@@ -3518,7 +3417,6 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55">
@@ -3575,7 +3473,6 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56">
@@ -3632,7 +3529,6 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57">
@@ -3689,7 +3585,6 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58">
@@ -3746,7 +3641,6 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59">
@@ -3803,7 +3697,6 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60">
@@ -3860,7 +3753,6 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61">
@@ -3917,7 +3809,6 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62">
@@ -3974,7 +3865,6 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63">
@@ -4031,7 +3921,6 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64">
-        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64">
@@ -4088,7 +3977,6 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65">
@@ -4145,7 +4033,6 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66">
-        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66">
@@ -4202,7 +4089,6 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67">
@@ -4259,7 +4145,6 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68">
@@ -4316,7 +4201,6 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69">
-        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B69">
@@ -4373,7 +4257,6 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70">
-        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70">
@@ -4430,7 +4313,6 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71">
@@ -4487,7 +4369,6 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72">
@@ -4544,7 +4425,6 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73">
-        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73">
@@ -4601,7 +4481,6 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74">
@@ -4658,7 +4537,6 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75">
-        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75">
@@ -4715,7 +4593,6 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
-        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76">
@@ -4772,7 +4649,6 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77">
-        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77">
@@ -4829,7 +4705,6 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78">
-        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78">
@@ -4886,7 +4761,6 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79">
-        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79">
@@ -4943,7 +4817,6 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80">
-        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80">
@@ -5000,7 +4873,6 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81">
@@ -5057,7 +4929,6 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82">
-        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82">
@@ -5114,7 +4985,6 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83">
-        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83">
@@ -5171,7 +5041,6 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84">
-        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84">
@@ -5228,7 +5097,6 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85">
-        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85">
@@ -5285,7 +5153,6 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86">
-        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86">
@@ -5342,7 +5209,6 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87">
-        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87">
@@ -5399,7 +5265,6 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88">
-        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88">
@@ -5456,7 +5321,6 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89">
-        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89">
@@ -5513,7 +5377,6 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90">
-        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90">
@@ -5570,7 +5433,6 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91">
-        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91">
@@ -5627,7 +5489,6 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92">
-        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92">
@@ -5684,7 +5545,6 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93">
-        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93">
@@ -5741,7 +5601,6 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94">
-        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94">
@@ -5798,7 +5657,6 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95">
-        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95">
@@ -5855,7 +5713,6 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96">
-        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B96">
@@ -5912,7 +5769,6 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97">
-        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97">
@@ -5969,7 +5825,6 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98">
-        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98">
@@ -6026,7 +5881,6 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99">
-        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99">
@@ -6083,7 +5937,6 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100">
-        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100">
@@ -6140,7 +5993,6 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101">
-        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101">
@@ -6197,7 +6049,6 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102">
-        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B102">
@@ -6254,7 +6105,6 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103">
-        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B103">
@@ -6311,7 +6161,6 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104">
-        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B104">
@@ -6368,7 +6217,6 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105">
-        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B105">
@@ -6425,7 +6273,6 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106">
-        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B106">
@@ -6482,7 +6329,6 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107">
-        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B107">
@@ -6539,7 +6385,6 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108">
-        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B108">
@@ -6596,7 +6441,6 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109">
-        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B109">
@@ -6653,7 +6497,6 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110">
-        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B110">
@@ -6710,7 +6553,6 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111">
-        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B111">
@@ -6767,7 +6609,6 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112">
-        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B112">
@@ -6824,7 +6665,6 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113">
-        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B113">
@@ -6881,7 +6721,6 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114">
-        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B114">
@@ -6938,7 +6777,6 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115">
-        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B115">
@@ -6995,7 +6833,6 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116">
-        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B116">
@@ -7052,7 +6889,6 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117">
-        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B117">
@@ -7109,7 +6945,6 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118">
-        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B118">
@@ -7166,7 +7001,6 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119">
-        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B119">
@@ -7223,7 +7057,6 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120">
-        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B120">
@@ -7280,7 +7113,6 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121">
-        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B121">
@@ -7337,7 +7169,6 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122">
-        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B122">
@@ -7394,7 +7225,6 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123">
-        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B123">
@@ -7451,7 +7281,6 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124">
-        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B124">
@@ -7508,7 +7337,6 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125">
-        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B125">
@@ -7565,7 +7393,6 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126">
-        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B126">
@@ -7622,7 +7449,6 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127">
-        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B127">
@@ -7679,7 +7505,6 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128">
-        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B128">
@@ -7736,7 +7561,6 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129">
-        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B129">
@@ -7793,7 +7617,6 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130">
-        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B130">
@@ -7850,7 +7673,6 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131">
-        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B131">
@@ -7907,7 +7729,6 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>130</v>
       </c>
       <c r="B132">
@@ -7964,7 +7785,6 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133">
-        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B133">
@@ -8021,7 +7841,6 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134">
-        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B134">
@@ -8078,7 +7897,6 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135">
-        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B135">
@@ -8135,7 +7953,6 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136">
-        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B136">
@@ -8192,7 +8009,6 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137">
-        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B137">
@@ -8249,7 +8065,6 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138">
-        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B138">
@@ -8306,7 +8121,6 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139">
-        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B139">
@@ -8363,7 +8177,6 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140">
-        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B140">
@@ -8420,7 +8233,6 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141">
-        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B141">
@@ -8477,7 +8289,6 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142">
-        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B142">
@@ -8534,7 +8345,6 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143">
-        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B143">
@@ -8591,7 +8401,6 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144">
-        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B144">
@@ -8648,7 +8457,6 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145">
-        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B145">
@@ -8705,7 +8513,6 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146">
-        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B146">
@@ -8762,7 +8569,6 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147">
-        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B147">
@@ -8819,7 +8625,6 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148">
-        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B148">
@@ -8876,7 +8681,6 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149">
-        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B149">
@@ -8933,7 +8737,6 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150">
-        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B150">
@@ -8990,7 +8793,6 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151">
-        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B151">
@@ -9047,7 +8849,6 @@
     </row>
     <row r="152" spans="1:18">
       <c r="A152">
-        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B152">
@@ -9104,7 +8905,6 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153">
-        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B153">
@@ -9161,7 +8961,6 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154">
-        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B154">
@@ -9218,7 +9017,6 @@
     </row>
     <row r="155" spans="1:18">
       <c r="A155">
-        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B155">
@@ -9275,7 +9073,6 @@
     </row>
     <row r="156" spans="1:18">
       <c r="A156">
-        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B156">
@@ -9332,7 +9129,6 @@
     </row>
     <row r="157" spans="1:18">
       <c r="A157">
-        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B157">
@@ -9389,7 +9185,6 @@
     </row>
     <row r="158" spans="1:18">
       <c r="A158">
-        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B158">
@@ -9446,7 +9241,6 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159">
-        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B159">
@@ -9503,7 +9297,6 @@
     </row>
     <row r="160" spans="1:18">
       <c r="A160">
-        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B160">
@@ -9560,7 +9353,6 @@
     </row>
     <row r="161" spans="1:18">
       <c r="A161">
-        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B161">
@@ -9617,7 +9409,6 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162">
-        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B162">
@@ -9674,7 +9465,6 @@
     </row>
     <row r="163" spans="1:18">
       <c r="A163">
-        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B163">
@@ -9731,7 +9521,6 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164">
-        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B164">
@@ -9788,7 +9577,6 @@
     </row>
     <row r="165" spans="1:18">
       <c r="A165">
-        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B165">
@@ -9845,7 +9633,6 @@
     </row>
     <row r="166" spans="1:18">
       <c r="A166">
-        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B166">
@@ -9902,7 +9689,6 @@
     </row>
     <row r="167" spans="1:18">
       <c r="A167">
-        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B167">
@@ -9959,7 +9745,6 @@
     </row>
     <row r="168" spans="1:18">
       <c r="A168">
-        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B168">
@@ -10016,7 +9801,6 @@
     </row>
     <row r="169" spans="1:18">
       <c r="A169">
-        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B169">
@@ -10073,7 +9857,6 @@
     </row>
     <row r="170" spans="1:18">
       <c r="A170">
-        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B170">
@@ -10130,7 +9913,6 @@
     </row>
     <row r="171" spans="1:18">
       <c r="A171">
-        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B171">
@@ -10187,7 +9969,6 @@
     </row>
     <row r="172" spans="1:18">
       <c r="A172">
-        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B172">
@@ -10244,7 +10025,6 @@
     </row>
     <row r="173" spans="1:18">
       <c r="A173">
-        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B173">
@@ -10301,7 +10081,6 @@
     </row>
     <row r="174" spans="1:18">
       <c r="A174">
-        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B174">
@@ -10358,7 +10137,6 @@
     </row>
     <row r="175" spans="1:18">
       <c r="A175">
-        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B175">
@@ -10415,7 +10193,6 @@
     </row>
     <row r="176" spans="1:18">
       <c r="A176">
-        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B176">
@@ -10472,7 +10249,6 @@
     </row>
     <row r="177" spans="1:18">
       <c r="A177">
-        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B177">
@@ -10529,7 +10305,6 @@
     </row>
     <row r="178" spans="1:18">
       <c r="A178">
-        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B178">
@@ -10586,7 +10361,6 @@
     </row>
     <row r="179" spans="1:18">
       <c r="A179">
-        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B179">
@@ -10643,7 +10417,6 @@
     </row>
     <row r="180" spans="1:18">
       <c r="A180">
-        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B180">
@@ -10700,7 +10473,6 @@
     </row>
     <row r="181" spans="1:18">
       <c r="A181">
-        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B181">
@@ -10757,7 +10529,6 @@
     </row>
     <row r="182" spans="1:18">
       <c r="A182">
-        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B182">
@@ -10814,7 +10585,6 @@
     </row>
     <row r="183" spans="1:18">
       <c r="A183">
-        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B183">
@@ -10871,7 +10641,6 @@
     </row>
     <row r="184" spans="1:18">
       <c r="A184">
-        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B184">
@@ -10928,7 +10697,6 @@
     </row>
     <row r="185" spans="1:18">
       <c r="A185">
-        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B185">
@@ -10985,7 +10753,6 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186">
-        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B186">
@@ -11042,7 +10809,6 @@
     </row>
     <row r="187" spans="1:18">
       <c r="A187">
-        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B187">
@@ -11099,7 +10865,6 @@
     </row>
     <row r="188" spans="1:18">
       <c r="A188">
-        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B188">
@@ -11156,7 +10921,6 @@
     </row>
     <row r="189" spans="1:18">
       <c r="A189">
-        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B189">
@@ -11213,7 +10977,6 @@
     </row>
     <row r="190" spans="1:18">
       <c r="A190">
-        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B190">
@@ -11270,7 +11033,6 @@
     </row>
     <row r="191" spans="1:18">
       <c r="A191">
-        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B191">
@@ -11327,7 +11089,6 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192">
-        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B192">
@@ -11384,7 +11145,6 @@
     </row>
     <row r="193" spans="1:18">
       <c r="A193">
-        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B193">
@@ -11441,7 +11201,6 @@
     </row>
     <row r="194" spans="1:18">
       <c r="A194">
-        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B194">
@@ -11498,7 +11257,6 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195">
-        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="B195">
@@ -11555,7 +11313,6 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196">
-        <f t="shared" ref="A196:A257" si="3">A195+1</f>
         <v>194</v>
       </c>
       <c r="B196">
@@ -11612,7 +11369,6 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197">
-        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B197">
@@ -11669,7 +11425,6 @@
     </row>
     <row r="198" spans="1:18">
       <c r="A198">
-        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B198">
@@ -11726,7 +11481,6 @@
     </row>
     <row r="199" spans="1:18">
       <c r="A199">
-        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B199">
@@ -11783,7 +11537,6 @@
     </row>
     <row r="200" spans="1:18">
       <c r="A200">
-        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B200">
@@ -11840,7 +11593,6 @@
     </row>
     <row r="201" spans="1:18">
       <c r="A201">
-        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B201">
@@ -11897,7 +11649,6 @@
     </row>
     <row r="202" spans="1:18">
       <c r="A202">
-        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B202">
@@ -11954,7 +11705,6 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203">
-        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B203">
@@ -12011,7 +11761,6 @@
     </row>
     <row r="204" spans="1:18">
       <c r="A204">
-        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B204">
@@ -12068,7 +11817,6 @@
     </row>
     <row r="205" spans="1:18">
       <c r="A205">
-        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B205">
@@ -12125,7 +11873,6 @@
     </row>
     <row r="206" spans="1:18">
       <c r="A206">
-        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B206">
@@ -12182,7 +11929,6 @@
     </row>
     <row r="207" spans="1:18">
       <c r="A207">
-        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B207">
@@ -12239,7 +11985,6 @@
     </row>
     <row r="208" spans="1:18">
       <c r="A208">
-        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B208">
@@ -12296,7 +12041,6 @@
     </row>
     <row r="209" spans="1:18">
       <c r="A209">
-        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B209">
@@ -12353,7 +12097,6 @@
     </row>
     <row r="210" spans="1:18">
       <c r="A210">
-        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B210">
@@ -12410,7 +12153,6 @@
     </row>
     <row r="211" spans="1:18">
       <c r="A211">
-        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B211">
@@ -12467,7 +12209,6 @@
     </row>
     <row r="212" spans="1:18">
       <c r="A212">
-        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B212">
@@ -12524,7 +12265,6 @@
     </row>
     <row r="213" spans="1:18">
       <c r="A213">
-        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B213">
@@ -12581,7 +12321,6 @@
     </row>
     <row r="214" spans="1:18">
       <c r="A214">
-        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B214">
@@ -12638,7 +12377,6 @@
     </row>
     <row r="215" spans="1:18">
       <c r="A215">
-        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B215">
@@ -12695,7 +12433,6 @@
     </row>
     <row r="216" spans="1:18">
       <c r="A216">
-        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B216">
@@ -12752,7 +12489,6 @@
     </row>
     <row r="217" spans="1:18">
       <c r="A217">
-        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B217">
@@ -12809,7 +12545,6 @@
     </row>
     <row r="218" spans="1:18">
       <c r="A218">
-        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B218">
@@ -12866,7 +12601,6 @@
     </row>
     <row r="219" spans="1:18">
       <c r="A219">
-        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B219">
@@ -12923,7 +12657,6 @@
     </row>
     <row r="220" spans="1:18">
       <c r="A220">
-        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B220">
@@ -12980,7 +12713,6 @@
     </row>
     <row r="221" spans="1:18">
       <c r="A221">
-        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B221">
@@ -13037,7 +12769,6 @@
     </row>
     <row r="222" spans="1:18">
       <c r="A222">
-        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B222">
@@ -13094,7 +12825,6 @@
     </row>
     <row r="223" spans="1:18">
       <c r="A223">
-        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B223">
@@ -13151,7 +12881,6 @@
     </row>
     <row r="224" spans="1:18">
       <c r="A224">
-        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B224">
@@ -13208,7 +12937,6 @@
     </row>
     <row r="225" spans="1:18">
       <c r="A225">
-        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B225">
@@ -13265,7 +12993,6 @@
     </row>
     <row r="226" spans="1:18">
       <c r="A226">
-        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B226">
@@ -13322,7 +13049,6 @@
     </row>
     <row r="227" spans="1:18">
       <c r="A227">
-        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B227">
@@ -13379,7 +13105,6 @@
     </row>
     <row r="228" spans="1:18">
       <c r="A228">
-        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B228">
@@ -13436,7 +13161,6 @@
     </row>
     <row r="229" spans="1:18">
       <c r="A229">
-        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B229">
@@ -13493,7 +13217,6 @@
     </row>
     <row r="230" spans="1:18">
       <c r="A230">
-        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B230">
@@ -13550,7 +13273,6 @@
     </row>
     <row r="231" spans="1:18">
       <c r="A231">
-        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B231">
@@ -13607,7 +13329,6 @@
     </row>
     <row r="232" spans="1:18">
       <c r="A232">
-        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B232">
@@ -13664,7 +13385,6 @@
     </row>
     <row r="233" spans="1:18">
       <c r="A233">
-        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B233">
@@ -13721,7 +13441,6 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234">
-        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B234">
@@ -13778,7 +13497,6 @@
     </row>
     <row r="235" spans="1:18">
       <c r="A235">
-        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B235">
@@ -13835,7 +13553,6 @@
     </row>
     <row r="236" spans="1:18">
       <c r="A236">
-        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B236">
@@ -13892,7 +13609,6 @@
     </row>
     <row r="237" spans="1:18">
       <c r="A237">
-        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B237">
@@ -13949,7 +13665,6 @@
     </row>
     <row r="238" spans="1:18">
       <c r="A238">
-        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="B238">
@@ -14006,7 +13721,6 @@
     </row>
     <row r="239" spans="1:18">
       <c r="A239">
-        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B239">
@@ -14063,7 +13777,6 @@
     </row>
     <row r="240" spans="1:18">
       <c r="A240">
-        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B240">
@@ -14120,7 +13833,6 @@
     </row>
     <row r="241" spans="1:18">
       <c r="A241">
-        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B241">
@@ -14177,7 +13889,6 @@
     </row>
     <row r="242" spans="1:18">
       <c r="A242">
-        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B242">
@@ -14234,7 +13945,6 @@
     </row>
     <row r="243" spans="1:18">
       <c r="A243">
-        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B243">
@@ -14291,7 +14001,6 @@
     </row>
     <row r="244" spans="1:18">
       <c r="A244">
-        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B244">
@@ -14348,7 +14057,6 @@
     </row>
     <row r="245" spans="1:18">
       <c r="A245">
-        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B245">
@@ -14405,7 +14113,6 @@
     </row>
     <row r="246" spans="1:18">
       <c r="A246">
-        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B246">
@@ -14462,7 +14169,6 @@
     </row>
     <row r="247" spans="1:18">
       <c r="A247">
-        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B247">
@@ -14519,7 +14225,6 @@
     </row>
     <row r="248" spans="1:18">
       <c r="A248">
-        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B248">
@@ -14576,7 +14281,6 @@
     </row>
     <row r="249" spans="1:18">
       <c r="A249">
-        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B249">
@@ -14633,7 +14337,6 @@
     </row>
     <row r="250" spans="1:18">
       <c r="A250">
-        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B250">
@@ -14690,7 +14393,6 @@
     </row>
     <row r="251" spans="1:18">
       <c r="A251">
-        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B251">
@@ -14747,7 +14449,6 @@
     </row>
     <row r="252" spans="1:18">
       <c r="A252">
-        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B252">
@@ -14804,7 +14505,6 @@
     </row>
     <row r="253" spans="1:18">
       <c r="A253">
-        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B253">
@@ -14861,7 +14561,6 @@
     </row>
     <row r="254" spans="1:18">
       <c r="A254">
-        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B254">
@@ -14918,7 +14617,6 @@
     </row>
     <row r="255" spans="1:18">
       <c r="A255">
-        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B255">
@@ -14975,7 +14673,6 @@
     </row>
     <row r="256" spans="1:18">
       <c r="A256">
-        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B256">
@@ -15032,7 +14729,6 @@
     </row>
     <row r="257" spans="1:18">
       <c r="A257">
-        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B257">
@@ -15085,13 +14781,1129 @@
       </c>
       <c r="R257">
         <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>100</v>
+      </c>
+      <c r="C258">
+        <v>50</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>0.2</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0.5</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0.8</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
+        <v>0.1</v>
+      </c>
+      <c r="O258">
+        <v>2</v>
+      </c>
+      <c r="P258">
+        <v>0.1</v>
+      </c>
+      <c r="Q258">
+        <v>0.9</v>
+      </c>
+      <c r="R258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>100</v>
+      </c>
+      <c r="C259">
+        <v>100</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>0.2</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0.5</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0.8</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>0.1</v>
+      </c>
+      <c r="O259">
+        <v>2</v>
+      </c>
+      <c r="P259">
+        <v>0.1</v>
+      </c>
+      <c r="Q259">
+        <v>0.9</v>
+      </c>
+      <c r="R259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>100</v>
+      </c>
+      <c r="C260">
+        <v>150</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0.2</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0.5</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0.8</v>
+      </c>
+      <c r="M260">
+        <v>2</v>
+      </c>
+      <c r="N260">
+        <v>0.1</v>
+      </c>
+      <c r="O260">
+        <v>2</v>
+      </c>
+      <c r="P260">
+        <v>0.1</v>
+      </c>
+      <c r="Q260">
+        <v>0.9</v>
+      </c>
+      <c r="R260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>100</v>
+      </c>
+      <c r="C261">
+        <v>200</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>0.2</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0.5</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0.8</v>
+      </c>
+      <c r="M261">
+        <v>2</v>
+      </c>
+      <c r="N261">
+        <v>0.1</v>
+      </c>
+      <c r="O261">
+        <v>2</v>
+      </c>
+      <c r="P261">
+        <v>0.1</v>
+      </c>
+      <c r="Q261">
+        <v>0.9</v>
+      </c>
+      <c r="R261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>100</v>
+      </c>
+      <c r="C262">
+        <v>250</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>0.2</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0.5</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0.8</v>
+      </c>
+      <c r="M262">
+        <v>2</v>
+      </c>
+      <c r="N262">
+        <v>0.1</v>
+      </c>
+      <c r="O262">
+        <v>2</v>
+      </c>
+      <c r="P262">
+        <v>0.1</v>
+      </c>
+      <c r="Q262">
+        <v>0.9</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>100</v>
+      </c>
+      <c r="C263">
+        <v>300</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>0.2</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0.5</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0.8</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
+        <v>0.1</v>
+      </c>
+      <c r="O263">
+        <v>2</v>
+      </c>
+      <c r="P263">
+        <v>0.1</v>
+      </c>
+      <c r="Q263">
+        <v>0.9</v>
+      </c>
+      <c r="R263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>100</v>
+      </c>
+      <c r="C264">
+        <v>350</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>0.2</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0.5</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0.8</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+      <c r="N264">
+        <v>0.1</v>
+      </c>
+      <c r="O264">
+        <v>2</v>
+      </c>
+      <c r="P264">
+        <v>0.1</v>
+      </c>
+      <c r="Q264">
+        <v>0.9</v>
+      </c>
+      <c r="R264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>100</v>
+      </c>
+      <c r="C265">
+        <v>400</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>0.2</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0.5</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0.8</v>
+      </c>
+      <c r="M265">
+        <v>2</v>
+      </c>
+      <c r="N265">
+        <v>0.1</v>
+      </c>
+      <c r="O265">
+        <v>2</v>
+      </c>
+      <c r="P265">
+        <v>0.1</v>
+      </c>
+      <c r="Q265">
+        <v>0.9</v>
+      </c>
+      <c r="R265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>100</v>
+      </c>
+      <c r="C266">
+        <v>450</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>0.2</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0.5</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0.8</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
+        <v>0.1</v>
+      </c>
+      <c r="O266">
+        <v>2</v>
+      </c>
+      <c r="P266">
+        <v>0.1</v>
+      </c>
+      <c r="Q266">
+        <v>0.9</v>
+      </c>
+      <c r="R266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>100</v>
+      </c>
+      <c r="C267">
+        <v>500</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>0.2</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0.5</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0.8</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>0.1</v>
+      </c>
+      <c r="O267">
+        <v>2</v>
+      </c>
+      <c r="P267">
+        <v>0.1</v>
+      </c>
+      <c r="Q267">
+        <v>0.9</v>
+      </c>
+      <c r="R267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>100</v>
+      </c>
+      <c r="C268">
+        <v>50</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>0.2</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0.5</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0.8</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>0.1</v>
+      </c>
+      <c r="O268">
+        <v>2</v>
+      </c>
+      <c r="P268">
+        <v>0.1</v>
+      </c>
+      <c r="Q268">
+        <v>0.9</v>
+      </c>
+      <c r="R268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>100</v>
+      </c>
+      <c r="C269">
+        <v>100</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>0.2</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0.5</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0.8</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>0.1</v>
+      </c>
+      <c r="O269">
+        <v>2</v>
+      </c>
+      <c r="P269">
+        <v>0.1</v>
+      </c>
+      <c r="Q269">
+        <v>0.9</v>
+      </c>
+      <c r="R269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>100</v>
+      </c>
+      <c r="C270">
+        <v>150</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>0.2</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0.5</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0.8</v>
+      </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
+      <c r="N270">
+        <v>0.1</v>
+      </c>
+      <c r="O270">
+        <v>2</v>
+      </c>
+      <c r="P270">
+        <v>0.1</v>
+      </c>
+      <c r="Q270">
+        <v>0.9</v>
+      </c>
+      <c r="R270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>100</v>
+      </c>
+      <c r="C271">
+        <v>200</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>0.2</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0.5</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0.8</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>0.1</v>
+      </c>
+      <c r="O271">
+        <v>2</v>
+      </c>
+      <c r="P271">
+        <v>0.1</v>
+      </c>
+      <c r="Q271">
+        <v>0.9</v>
+      </c>
+      <c r="R271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>100</v>
+      </c>
+      <c r="C272">
+        <v>250</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>0.2</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0.5</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0.8</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+      <c r="N272">
+        <v>0.1</v>
+      </c>
+      <c r="O272">
+        <v>2</v>
+      </c>
+      <c r="P272">
+        <v>0.1</v>
+      </c>
+      <c r="Q272">
+        <v>0.9</v>
+      </c>
+      <c r="R272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>100</v>
+      </c>
+      <c r="C273">
+        <v>300</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0.2</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0.5</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0.8</v>
+      </c>
+      <c r="M273">
+        <v>2</v>
+      </c>
+      <c r="N273">
+        <v>0.1</v>
+      </c>
+      <c r="O273">
+        <v>2</v>
+      </c>
+      <c r="P273">
+        <v>0.1</v>
+      </c>
+      <c r="Q273">
+        <v>0.9</v>
+      </c>
+      <c r="R273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>100</v>
+      </c>
+      <c r="C274">
+        <v>350</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0.2</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0.5</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0.8</v>
+      </c>
+      <c r="M274">
+        <v>2</v>
+      </c>
+      <c r="N274">
+        <v>0.1</v>
+      </c>
+      <c r="O274">
+        <v>2</v>
+      </c>
+      <c r="P274">
+        <v>0.1</v>
+      </c>
+      <c r="Q274">
+        <v>0.9</v>
+      </c>
+      <c r="R274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>100</v>
+      </c>
+      <c r="C275">
+        <v>400</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>0.2</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0.5</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0.8</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>0.1</v>
+      </c>
+      <c r="O275">
+        <v>2</v>
+      </c>
+      <c r="P275">
+        <v>0.1</v>
+      </c>
+      <c r="Q275">
+        <v>0.9</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>100</v>
+      </c>
+      <c r="C276">
+        <v>450</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>0.2</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0.5</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0.8</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>0.1</v>
+      </c>
+      <c r="O276">
+        <v>2</v>
+      </c>
+      <c r="P276">
+        <v>0.1</v>
+      </c>
+      <c r="Q276">
+        <v>0.9</v>
+      </c>
+      <c r="R276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>100</v>
+      </c>
+      <c r="C277">
+        <v>500</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>0.2</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>0.5</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0.8</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>0.1</v>
+      </c>
+      <c r="O277">
+        <v>2</v>
+      </c>
+      <c r="P277">
+        <v>0.1</v>
+      </c>
+      <c r="Q277">
+        <v>0.9</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
+++ b/examples/Aspiration/data/excel_source/trainer_scenarios.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Dropbox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30240" windowHeight="13050"/>
+    <workbookView windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>id</t>
   </si>
@@ -51,13 +46,19 @@
     <t>initial_technology</t>
   </si>
   <si>
-    <t>sigma_exploitation</t>
-  </si>
-  <si>
     <t>mean_exploration</t>
   </si>
   <si>
     <t>sigma_exploration</t>
+  </si>
+  <si>
+    <t>cost_exploration</t>
+  </si>
+  <si>
+    <t>sigma_exploitation</t>
+  </si>
+  <si>
+    <t>cost_exploitation</t>
   </si>
   <si>
     <t>imitation_share</t>
@@ -66,35 +67,372 @@
     <t>imitation_fail_rate</t>
   </si>
   <si>
-    <t>cost_exploration</t>
-  </si>
-  <si>
-    <t>cost_exploitation</t>
-  </si>
-  <si>
     <t>cost_imitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -102,24 +440,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -377,19 +1001,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R277"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="11.84375" customWidth="1"/>
+    <col min="12" max="12" width="16.4375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -423,25 +1055,25 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
       <c r="R1" t="s">
         <v>17</v>
@@ -482,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -511,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -538,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>0.1</v>
@@ -567,7 +1199,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -594,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>0.1</v>
@@ -623,7 +1255,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -650,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0.1</v>
@@ -679,7 +1311,7 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -706,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>0.1</v>
@@ -762,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -771,7 +1403,7 @@
         <v>0.1</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <v>0.1</v>
@@ -791,7 +1423,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -818,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <v>0.1</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>0.1</v>
@@ -847,7 +1479,7 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -874,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <v>0.1</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0.1</v>
@@ -903,7 +1535,7 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -930,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0.1</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10">
         <v>0.1</v>
@@ -959,7 +1591,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -986,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>0.1</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>0.1</v>
@@ -1051,7 +1683,7 @@
         <v>0.1</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>0.1</v>
@@ -1071,7 +1703,7 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1101,13 +1733,13 @@
         <v>0.8</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0.1</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>0.1</v>
@@ -1127,7 +1759,7 @@
         <v>100</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1157,13 +1789,13 @@
         <v>0.8</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>0.1</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>0.1</v>
@@ -1183,7 +1815,7 @@
         <v>100</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1213,13 +1845,13 @@
         <v>0.8</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0.1</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>0.1</v>
@@ -1239,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1269,13 +1901,13 @@
         <v>0.8</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0.1</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>0.1</v>
@@ -1322,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M17">
         <v>2</v>
@@ -1331,7 +1963,7 @@
         <v>0.1</v>
       </c>
       <c r="O17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>0.1</v>
@@ -1351,7 +1983,7 @@
         <v>100</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1378,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0.1</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <v>0.1</v>
@@ -1407,7 +2039,7 @@
         <v>100</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1434,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0.1</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P19">
         <v>0.1</v>
@@ -1463,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1490,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>0.1</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>0.1</v>
@@ -1519,7 +2151,7 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1546,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N21">
         <v>0.1</v>
       </c>
       <c r="O21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>0.1</v>
@@ -1602,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -1611,7 +2243,7 @@
         <v>0.1</v>
       </c>
       <c r="O22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>0.1</v>
@@ -1631,7 +2263,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1658,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>0.1</v>
       </c>
       <c r="O23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>0.1</v>
@@ -1687,7 +2319,7 @@
         <v>100</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1714,16 +2346,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>0.1</v>
       </c>
       <c r="O24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>0.1</v>
@@ -1743,7 +2375,7 @@
         <v>100</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1770,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0.1</v>
       </c>
       <c r="O25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>0.1</v>
@@ -1799,7 +2431,7 @@
         <v>100</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1826,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0.1</v>
       </c>
       <c r="O26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <v>0.1</v>
@@ -1882,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -1911,7 +2543,7 @@
         <v>100</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1938,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>0.1</v>
@@ -1967,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1994,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0.1</v>
@@ -2023,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2050,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>0.1</v>
@@ -2079,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2106,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>0.1</v>
@@ -2162,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
         <v>2</v>
@@ -2171,7 +2803,7 @@
         <v>0.1</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P32">
         <v>0.1</v>
@@ -2191,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2218,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>0.1</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P33">
         <v>0.1</v>
@@ -2247,7 +2879,7 @@
         <v>100</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2274,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>0.1</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>0.1</v>
@@ -2303,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2330,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>0.1</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P35">
         <v>0.1</v>
@@ -2359,7 +2991,7 @@
         <v>100</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2386,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <v>0.1</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <v>0.1</v>
@@ -2451,7 +3083,7 @@
         <v>0.1</v>
       </c>
       <c r="O37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P37">
         <v>0.1</v>
@@ -2471,7 +3103,7 @@
         <v>100</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2501,13 +3133,13 @@
         <v>0.8</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0.1</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>0.1</v>
@@ -2527,7 +3159,7 @@
         <v>100</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2557,13 +3189,13 @@
         <v>0.8</v>
       </c>
       <c r="M39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N39">
         <v>0.1</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P39">
         <v>0.1</v>
@@ -2583,7 +3215,7 @@
         <v>100</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2613,13 +3245,13 @@
         <v>0.8</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>0.1</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P40">
         <v>0.1</v>
@@ -2639,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2669,13 +3301,13 @@
         <v>0.8</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N41">
         <v>0.1</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P41">
         <v>0.1</v>
@@ -2722,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -2731,7 +3363,7 @@
         <v>0.1</v>
       </c>
       <c r="O42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P42">
         <v>0.1</v>
@@ -2751,7 +3383,7 @@
         <v>100</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2778,16 +3410,16 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0.1</v>
       </c>
       <c r="O43">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P43">
         <v>0.1</v>
@@ -2807,7 +3439,7 @@
         <v>100</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2834,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>0.1</v>
       </c>
       <c r="O44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P44">
         <v>0.1</v>
@@ -2863,7 +3495,7 @@
         <v>100</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2890,16 +3522,16 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>0.1</v>
       </c>
       <c r="O45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P45">
         <v>0.1</v>
@@ -2919,7 +3551,7 @@
         <v>100</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2946,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0.1</v>
       </c>
       <c r="O46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P46">
         <v>0.1</v>
@@ -3002,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M47">
         <v>2</v>
@@ -3011,7 +3643,7 @@
         <v>0.1</v>
       </c>
       <c r="O47">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P47">
         <v>0.1</v>
@@ -3031,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3058,16 +3690,16 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48">
         <v>0.1</v>
       </c>
       <c r="O48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P48">
         <v>0.1</v>
@@ -3087,7 +3719,7 @@
         <v>100</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3114,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>0.1</v>
       </c>
       <c r="O49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P49">
         <v>0.1</v>
@@ -3143,7 +3775,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3170,16 +3802,16 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>0.1</v>
       </c>
       <c r="O50">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P50">
         <v>0.1</v>
@@ -3199,7 +3831,7 @@
         <v>100</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3226,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0.1</v>
       </c>
       <c r="O51">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P51">
         <v>0.1</v>
@@ -3282,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -3311,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3338,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53">
         <v>0.1</v>
@@ -3367,7 +3999,7 @@
         <v>100</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3394,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0.1</v>
@@ -3423,7 +4055,7 @@
         <v>100</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3450,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M55">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0.1</v>
@@ -3479,7 +4111,7 @@
         <v>100</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3506,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M56">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>0.1</v>
@@ -3562,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -3571,7 +4203,7 @@
         <v>0.1</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P57">
         <v>0.1</v>
@@ -3591,7 +4223,7 @@
         <v>100</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3618,16 +4250,16 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <v>0.1</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P58">
         <v>0.1</v>
@@ -3647,7 +4279,7 @@
         <v>100</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3674,16 +4306,16 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>0.1</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P59">
         <v>0.1</v>
@@ -3703,7 +4335,7 @@
         <v>100</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3730,16 +4362,16 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N60">
         <v>0.1</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60">
         <v>0.1</v>
@@ -3759,7 +4391,7 @@
         <v>100</v>
       </c>
       <c r="C61">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3786,16 +4418,16 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <v>0.1</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61">
         <v>0.1</v>
@@ -3851,7 +4483,7 @@
         <v>0.1</v>
       </c>
       <c r="O62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P62">
         <v>0.1</v>
@@ -3871,7 +4503,7 @@
         <v>100</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3901,13 +4533,13 @@
         <v>0.8</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63">
         <v>0.1</v>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P63">
         <v>0.1</v>
@@ -3927,7 +4559,7 @@
         <v>100</v>
       </c>
       <c r="C64">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3957,13 +4589,13 @@
         <v>0.8</v>
       </c>
       <c r="M64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <v>0.1</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P64">
         <v>0.1</v>
@@ -3983,7 +4615,7 @@
         <v>100</v>
       </c>
       <c r="C65">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4013,13 +4645,13 @@
         <v>0.8</v>
       </c>
       <c r="M65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N65">
         <v>0.1</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>0.1</v>
@@ -4039,7 +4671,7 @@
         <v>100</v>
       </c>
       <c r="C66">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4069,13 +4701,13 @@
         <v>0.8</v>
       </c>
       <c r="M66">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N66">
         <v>0.1</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P66">
         <v>0.1</v>
@@ -4122,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -4131,7 +4763,7 @@
         <v>0.1</v>
       </c>
       <c r="O67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P67">
         <v>0.1</v>
@@ -4151,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4178,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>0.1</v>
       </c>
       <c r="O68">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P68">
         <v>0.1</v>
@@ -4207,7 +4839,7 @@
         <v>100</v>
       </c>
       <c r="C69">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4234,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N69">
         <v>0.1</v>
       </c>
       <c r="O69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P69">
         <v>0.1</v>
@@ -4263,7 +4895,7 @@
         <v>100</v>
       </c>
       <c r="C70">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4290,16 +4922,16 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M70">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>0.1</v>
       </c>
       <c r="O70">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P70">
         <v>0.1</v>
@@ -4319,7 +4951,7 @@
         <v>100</v>
       </c>
       <c r="C71">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -4346,16 +4978,16 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M71">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P71">
         <v>0.1</v>
@@ -4402,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -4411,7 +5043,7 @@
         <v>0.1</v>
       </c>
       <c r="O72">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P72">
         <v>0.1</v>
@@ -4431,7 +5063,7 @@
         <v>100</v>
       </c>
       <c r="C73">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4458,16 +5090,16 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N73">
         <v>0.1</v>
       </c>
       <c r="O73">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P73">
         <v>0.1</v>
@@ -4487,7 +5119,7 @@
         <v>100</v>
       </c>
       <c r="C74">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4514,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <v>0.1</v>
       </c>
       <c r="O74">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P74">
         <v>0.1</v>
@@ -4543,7 +5175,7 @@
         <v>100</v>
       </c>
       <c r="C75">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4570,16 +5202,16 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <v>0.1</v>
       </c>
       <c r="O75">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P75">
         <v>0.1</v>
@@ -4599,7 +5231,7 @@
         <v>100</v>
       </c>
       <c r="C76">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4626,16 +5258,16 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <v>0.1</v>
       </c>
       <c r="O76">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P76">
         <v>0.1</v>
@@ -4682,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M77">
         <v>2</v>
@@ -4711,7 +5343,7 @@
         <v>100</v>
       </c>
       <c r="C78">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4738,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N78">
         <v>0.1</v>
@@ -4767,7 +5399,7 @@
         <v>100</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4794,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N79">
         <v>0.1</v>
@@ -4823,7 +5455,7 @@
         <v>100</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4850,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M80">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>0.1</v>
@@ -4879,7 +5511,7 @@
         <v>100</v>
       </c>
       <c r="C81">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4906,10 +5538,10 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M81">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N81">
         <v>0.1</v>
@@ -4962,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -4971,7 +5603,7 @@
         <v>0.1</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P82">
         <v>0.1</v>
@@ -4991,7 +5623,7 @@
         <v>100</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5018,16 +5650,16 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83">
         <v>0.1</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P83">
         <v>0.1</v>
@@ -5047,7 +5679,7 @@
         <v>100</v>
       </c>
       <c r="C84">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5074,16 +5706,16 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N84">
         <v>0.1</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P84">
         <v>0.1</v>
@@ -5103,7 +5735,7 @@
         <v>100</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5130,16 +5762,16 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N85">
         <v>0.1</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P85">
         <v>0.1</v>
@@ -5159,7 +5791,7 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5186,16 +5818,16 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M86">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N86">
         <v>0.1</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P86">
         <v>0.1</v>
@@ -5251,7 +5883,7 @@
         <v>0.1</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P87">
         <v>0.1</v>
@@ -5271,7 +5903,7 @@
         <v>100</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -5301,13 +5933,13 @@
         <v>0.8</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N88">
         <v>0.1</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P88">
         <v>0.1</v>
@@ -5327,7 +5959,7 @@
         <v>100</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -5357,13 +5989,13 @@
         <v>0.8</v>
       </c>
       <c r="M89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N89">
         <v>0.1</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P89">
         <v>0.1</v>
@@ -5383,7 +6015,7 @@
         <v>100</v>
       </c>
       <c r="C90">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5413,13 +6045,13 @@
         <v>0.8</v>
       </c>
       <c r="M90">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N90">
         <v>0.1</v>
       </c>
       <c r="O90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P90">
         <v>0.1</v>
@@ -5439,7 +6071,7 @@
         <v>100</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5469,13 +6101,13 @@
         <v>0.8</v>
       </c>
       <c r="M91">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N91">
         <v>0.1</v>
       </c>
       <c r="O91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P91">
         <v>0.1</v>
@@ -5522,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M92">
         <v>2</v>
@@ -5531,7 +6163,7 @@
         <v>0.1</v>
       </c>
       <c r="O92">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P92">
         <v>0.1</v>
@@ -5551,7 +6183,7 @@
         <v>100</v>
       </c>
       <c r="C93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5578,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N93">
         <v>0.1</v>
       </c>
       <c r="O93">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P93">
         <v>0.1</v>
@@ -5607,7 +6239,7 @@
         <v>100</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5634,16 +6266,16 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N94">
         <v>0.1</v>
       </c>
       <c r="O94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P94">
         <v>0.1</v>
@@ -5663,7 +6295,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5690,16 +6322,16 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N95">
         <v>0.1</v>
       </c>
       <c r="O95">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P95">
         <v>0.1</v>
@@ -5719,7 +6351,7 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5746,16 +6378,16 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M96">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N96">
         <v>0.1</v>
       </c>
       <c r="O96">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P96">
         <v>0.1</v>
@@ -5802,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M97">
         <v>2</v>
@@ -5811,7 +6443,7 @@
         <v>0.1</v>
       </c>
       <c r="O97">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P97">
         <v>0.1</v>
@@ -5831,7 +6463,7 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5858,16 +6490,16 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N98">
         <v>0.1</v>
       </c>
       <c r="O98">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P98">
         <v>0.1</v>
@@ -5887,7 +6519,7 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5914,16 +6546,16 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N99">
         <v>0.1</v>
       </c>
       <c r="O99">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P99">
         <v>0.1</v>
@@ -5943,7 +6575,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5970,16 +6602,16 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N100">
         <v>0.1</v>
       </c>
       <c r="O100">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P100">
         <v>0.1</v>
@@ -5999,7 +6631,7 @@
         <v>100</v>
       </c>
       <c r="C101">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -6026,16 +6658,16 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M101">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N101">
         <v>0.1</v>
       </c>
       <c r="O101">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>0.1</v>
@@ -6082,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M102">
         <v>2</v>
@@ -6111,7 +6743,7 @@
         <v>100</v>
       </c>
       <c r="C103">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -6138,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N103">
         <v>0.1</v>
@@ -6167,7 +6799,7 @@
         <v>100</v>
       </c>
       <c r="C104">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -6194,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N104">
         <v>0.1</v>
@@ -6223,7 +6855,7 @@
         <v>100</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -6250,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M105">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <v>0.1</v>
@@ -6279,7 +6911,7 @@
         <v>100</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6306,10 +6938,10 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M106">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N106">
         <v>0.1</v>
@@ -6362,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M107">
         <v>2</v>
@@ -6371,7 +7003,7 @@
         <v>0.1</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P107">
         <v>0.1</v>
@@ -6391,7 +7023,7 @@
         <v>100</v>
       </c>
       <c r="C108">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -6418,16 +7050,16 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N108">
         <v>0.1</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P108">
         <v>0.1</v>
@@ -6447,7 +7079,7 @@
         <v>100</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -6474,16 +7106,16 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N109">
         <v>0.1</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P109">
         <v>0.1</v>
@@ -6503,7 +7135,7 @@
         <v>100</v>
       </c>
       <c r="C110">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -6530,16 +7162,16 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M110">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N110">
         <v>0.1</v>
       </c>
       <c r="O110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P110">
         <v>0.1</v>
@@ -6559,7 +7191,7 @@
         <v>100</v>
       </c>
       <c r="C111">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -6586,16 +7218,16 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N111">
         <v>0.1</v>
       </c>
       <c r="O111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P111">
         <v>0.1</v>
@@ -6651,7 +7283,7 @@
         <v>0.1</v>
       </c>
       <c r="O112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P112">
         <v>0.1</v>
@@ -6671,7 +7303,7 @@
         <v>100</v>
       </c>
       <c r="C113">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -6701,13 +7333,13 @@
         <v>0.8</v>
       </c>
       <c r="M113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N113">
         <v>0.1</v>
       </c>
       <c r="O113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P113">
         <v>0.1</v>
@@ -6727,7 +7359,7 @@
         <v>100</v>
       </c>
       <c r="C114">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -6757,13 +7389,13 @@
         <v>0.8</v>
       </c>
       <c r="M114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N114">
         <v>0.1</v>
       </c>
       <c r="O114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P114">
         <v>0.1</v>
@@ -6783,7 +7415,7 @@
         <v>100</v>
       </c>
       <c r="C115">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -6813,13 +7445,13 @@
         <v>0.8</v>
       </c>
       <c r="M115">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N115">
         <v>0.1</v>
       </c>
       <c r="O115">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P115">
         <v>0.1</v>
@@ -6839,7 +7471,7 @@
         <v>100</v>
       </c>
       <c r="C116">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -6869,13 +7501,13 @@
         <v>0.8</v>
       </c>
       <c r="M116">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N116">
         <v>0.1</v>
       </c>
       <c r="O116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P116">
         <v>0.1</v>
@@ -6922,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M117">
         <v>2</v>
@@ -6931,7 +7563,7 @@
         <v>0.1</v>
       </c>
       <c r="O117">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P117">
         <v>0.1</v>
@@ -6951,7 +7583,7 @@
         <v>100</v>
       </c>
       <c r="C118">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6978,16 +7610,16 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N118">
         <v>0.1</v>
       </c>
       <c r="O118">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P118">
         <v>0.1</v>
@@ -7007,7 +7639,7 @@
         <v>100</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -7034,16 +7666,16 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N119">
         <v>0.1</v>
       </c>
       <c r="O119">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P119">
         <v>0.1</v>
@@ -7063,7 +7695,7 @@
         <v>100</v>
       </c>
       <c r="C120">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -7090,16 +7722,16 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M120">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N120">
         <v>0.1</v>
       </c>
       <c r="O120">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P120">
         <v>0.1</v>
@@ -7119,7 +7751,7 @@
         <v>100</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -7146,16 +7778,16 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M121">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N121">
         <v>0.1</v>
       </c>
       <c r="O121">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P121">
         <v>0.1</v>
@@ -7202,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M122">
         <v>2</v>
@@ -7211,7 +7843,7 @@
         <v>0.1</v>
       </c>
       <c r="O122">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P122">
         <v>0.1</v>
@@ -7231,7 +7863,7 @@
         <v>100</v>
       </c>
       <c r="C123">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -7258,16 +7890,16 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N123">
         <v>0.1</v>
       </c>
       <c r="O123">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P123">
         <v>0.1</v>
@@ -7287,7 +7919,7 @@
         <v>100</v>
       </c>
       <c r="C124">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -7314,16 +7946,16 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N124">
         <v>0.1</v>
       </c>
       <c r="O124">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P124">
         <v>0.1</v>
@@ -7343,7 +7975,7 @@
         <v>100</v>
       </c>
       <c r="C125">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -7370,16 +8002,16 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M125">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N125">
         <v>0.1</v>
       </c>
       <c r="O125">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P125">
         <v>0.1</v>
@@ -7399,7 +8031,7 @@
         <v>100</v>
       </c>
       <c r="C126">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -7426,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M126">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N126">
         <v>0.1</v>
       </c>
       <c r="O126">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P126">
         <v>0.1</v>
@@ -7482,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M127">
         <v>2</v>
@@ -7511,7 +8143,7 @@
         <v>100</v>
       </c>
       <c r="C128">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -7538,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N128">
         <v>0.1</v>
@@ -7567,7 +8199,7 @@
         <v>100</v>
       </c>
       <c r="C129">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -7594,10 +8226,10 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N129">
         <v>0.1</v>
@@ -7623,7 +8255,7 @@
         <v>100</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -7650,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N130">
         <v>0.1</v>
@@ -7679,7 +8311,7 @@
         <v>100</v>
       </c>
       <c r="C131">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -7706,10 +8338,10 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M131">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N131">
         <v>0.1</v>
@@ -7762,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M132">
         <v>2</v>
@@ -7771,7 +8403,7 @@
         <v>0.1</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P132">
         <v>0.1</v>
@@ -7791,7 +8423,7 @@
         <v>100</v>
       </c>
       <c r="C133">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -7818,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N133">
         <v>0.1</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P133">
         <v>0.1</v>
@@ -7847,7 +8479,7 @@
         <v>100</v>
       </c>
       <c r="C134">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -7874,16 +8506,16 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N134">
         <v>0.1</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P134">
         <v>0.1</v>
@@ -7903,7 +8535,7 @@
         <v>100</v>
       </c>
       <c r="C135">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -7930,16 +8562,16 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M135">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N135">
         <v>0.1</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P135">
         <v>0.1</v>
@@ -7959,7 +8591,7 @@
         <v>100</v>
       </c>
       <c r="C136">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -7986,16 +8618,16 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M136">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N136">
         <v>0.1</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P136">
         <v>0.1</v>
@@ -8051,7 +8683,7 @@
         <v>0.1</v>
       </c>
       <c r="O137">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P137">
         <v>0.1</v>
@@ -8071,7 +8703,7 @@
         <v>100</v>
       </c>
       <c r="C138">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -8101,13 +8733,13 @@
         <v>0.8</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N138">
         <v>0.1</v>
       </c>
       <c r="O138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P138">
         <v>0.1</v>
@@ -8127,7 +8759,7 @@
         <v>100</v>
       </c>
       <c r="C139">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -8157,13 +8789,13 @@
         <v>0.8</v>
       </c>
       <c r="M139">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N139">
         <v>0.1</v>
       </c>
       <c r="O139">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P139">
         <v>0.1</v>
@@ -8183,7 +8815,7 @@
         <v>100</v>
       </c>
       <c r="C140">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -8213,13 +8845,13 @@
         <v>0.8</v>
       </c>
       <c r="M140">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N140">
         <v>0.1</v>
       </c>
       <c r="O140">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P140">
         <v>0.1</v>
@@ -8239,7 +8871,7 @@
         <v>100</v>
       </c>
       <c r="C141">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -8269,13 +8901,13 @@
         <v>0.8</v>
       </c>
       <c r="M141">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N141">
         <v>0.1</v>
       </c>
       <c r="O141">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P141">
         <v>0.1</v>
@@ -8322,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M142">
         <v>2</v>
@@ -8331,7 +8963,7 @@
         <v>0.1</v>
       </c>
       <c r="O142">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P142">
         <v>0.1</v>
@@ -8351,7 +8983,7 @@
         <v>100</v>
       </c>
       <c r="C143">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -8378,16 +9010,16 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N143">
         <v>0.1</v>
       </c>
       <c r="O143">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P143">
         <v>0.1</v>
@@ -8407,7 +9039,7 @@
         <v>100</v>
       </c>
       <c r="C144">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -8434,16 +9066,16 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M144">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N144">
         <v>0.1</v>
       </c>
       <c r="O144">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P144">
         <v>0.1</v>
@@ -8463,7 +9095,7 @@
         <v>100</v>
       </c>
       <c r="C145">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -8490,16 +9122,16 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M145">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N145">
         <v>0.1</v>
       </c>
       <c r="O145">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P145">
         <v>0.1</v>
@@ -8519,7 +9151,7 @@
         <v>100</v>
       </c>
       <c r="C146">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -8546,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M146">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N146">
         <v>0.1</v>
       </c>
       <c r="O146">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P146">
         <v>0.1</v>
@@ -8602,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M147">
         <v>2</v>
@@ -8611,7 +9243,7 @@
         <v>0.1</v>
       </c>
       <c r="O147">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P147">
         <v>0.1</v>
@@ -8631,7 +9263,7 @@
         <v>100</v>
       </c>
       <c r="C148">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -8658,16 +9290,16 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M148">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N148">
         <v>0.1</v>
       </c>
       <c r="O148">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P148">
         <v>0.1</v>
@@ -8687,7 +9319,7 @@
         <v>100</v>
       </c>
       <c r="C149">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -8714,16 +9346,16 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N149">
         <v>0.1</v>
       </c>
       <c r="O149">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P149">
         <v>0.1</v>
@@ -8743,7 +9375,7 @@
         <v>100</v>
       </c>
       <c r="C150">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -8770,16 +9402,16 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M150">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N150">
         <v>0.1</v>
       </c>
       <c r="O150">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P150">
         <v>0.1</v>
@@ -8799,7 +9431,7 @@
         <v>100</v>
       </c>
       <c r="C151">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -8826,16 +9458,16 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M151">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N151">
         <v>0.1</v>
       </c>
       <c r="O151">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P151">
         <v>0.1</v>
@@ -8882,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M152">
         <v>2</v>
@@ -8911,7 +9543,7 @@
         <v>100</v>
       </c>
       <c r="C153">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -8938,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N153">
         <v>0.1</v>
@@ -8967,7 +9599,7 @@
         <v>100</v>
       </c>
       <c r="C154">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -8994,10 +9626,10 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M154">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N154">
         <v>0.1</v>
@@ -9023,7 +9655,7 @@
         <v>100</v>
       </c>
       <c r="C155">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -9050,10 +9682,10 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M155">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N155">
         <v>0.1</v>
@@ -9079,7 +9711,7 @@
         <v>100</v>
       </c>
       <c r="C156">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -9106,10 +9738,10 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M156">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N156">
         <v>0.1</v>
@@ -9162,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M157">
         <v>2</v>
@@ -9171,7 +9803,7 @@
         <v>0.1</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P157">
         <v>0.1</v>
@@ -9191,7 +9823,7 @@
         <v>100</v>
       </c>
       <c r="C158">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -9218,16 +9850,16 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N158">
         <v>0.1</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P158">
         <v>0.1</v>
@@ -9247,7 +9879,7 @@
         <v>100</v>
       </c>
       <c r="C159">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -9274,16 +9906,16 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N159">
         <v>0.1</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P159">
         <v>0.1</v>
@@ -9303,7 +9935,7 @@
         <v>100</v>
       </c>
       <c r="C160">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -9330,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="L160">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M160">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N160">
         <v>0.1</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P160">
         <v>0.1</v>
@@ -9359,7 +9991,7 @@
         <v>100</v>
       </c>
       <c r="C161">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -9386,16 +10018,16 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M161">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N161">
         <v>0.1</v>
       </c>
       <c r="O161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P161">
         <v>0.1</v>
@@ -9451,7 +10083,7 @@
         <v>0.1</v>
       </c>
       <c r="O162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P162">
         <v>0.1</v>
@@ -9471,7 +10103,7 @@
         <v>100</v>
       </c>
       <c r="C163">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9501,13 +10133,13 @@
         <v>0.8</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N163">
         <v>0.1</v>
       </c>
       <c r="O163">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P163">
         <v>0.1</v>
@@ -9527,7 +10159,7 @@
         <v>100</v>
       </c>
       <c r="C164">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -9557,13 +10189,13 @@
         <v>0.8</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N164">
         <v>0.1</v>
       </c>
       <c r="O164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P164">
         <v>0.1</v>
@@ -9583,7 +10215,7 @@
         <v>100</v>
       </c>
       <c r="C165">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -9613,13 +10245,13 @@
         <v>0.8</v>
       </c>
       <c r="M165">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N165">
         <v>0.1</v>
       </c>
       <c r="O165">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P165">
         <v>0.1</v>
@@ -9639,7 +10271,7 @@
         <v>100</v>
       </c>
       <c r="C166">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -9669,13 +10301,13 @@
         <v>0.8</v>
       </c>
       <c r="M166">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N166">
         <v>0.1</v>
       </c>
       <c r="O166">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P166">
         <v>0.1</v>
@@ -9722,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M167">
         <v>2</v>
@@ -9731,7 +10363,7 @@
         <v>0.1</v>
       </c>
       <c r="O167">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P167">
         <v>0.1</v>
@@ -9751,7 +10383,7 @@
         <v>100</v>
       </c>
       <c r="C168">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -9778,16 +10410,16 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N168">
         <v>0.1</v>
       </c>
       <c r="O168">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P168">
         <v>0.1</v>
@@ -9807,7 +10439,7 @@
         <v>100</v>
       </c>
       <c r="C169">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -9834,16 +10466,16 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N169">
         <v>0.1</v>
       </c>
       <c r="O169">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P169">
         <v>0.1</v>
@@ -9863,7 +10495,7 @@
         <v>100</v>
       </c>
       <c r="C170">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -9890,16 +10522,16 @@
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M170">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N170">
         <v>0.1</v>
       </c>
       <c r="O170">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P170">
         <v>0.1</v>
@@ -9919,7 +10551,7 @@
         <v>100</v>
       </c>
       <c r="C171">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -9946,16 +10578,16 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M171">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N171">
         <v>0.1</v>
       </c>
       <c r="O171">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P171">
         <v>0.1</v>
@@ -10002,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M172">
         <v>2</v>
@@ -10011,7 +10643,7 @@
         <v>0.1</v>
       </c>
       <c r="O172">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P172">
         <v>0.1</v>
@@ -10031,7 +10663,7 @@
         <v>100</v>
       </c>
       <c r="C173">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -10058,16 +10690,16 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M173">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N173">
         <v>0.1</v>
       </c>
       <c r="O173">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P173">
         <v>0.1</v>
@@ -10087,7 +10719,7 @@
         <v>100</v>
       </c>
       <c r="C174">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -10114,16 +10746,16 @@
         <v>0</v>
       </c>
       <c r="L174">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M174">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N174">
         <v>0.1</v>
       </c>
       <c r="O174">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P174">
         <v>0.1</v>
@@ -10143,7 +10775,7 @@
         <v>100</v>
       </c>
       <c r="C175">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -10170,16 +10802,16 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M175">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N175">
         <v>0.1</v>
       </c>
       <c r="O175">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P175">
         <v>0.1</v>
@@ -10199,7 +10831,7 @@
         <v>100</v>
       </c>
       <c r="C176">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -10226,16 +10858,16 @@
         <v>0</v>
       </c>
       <c r="L176">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M176">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N176">
         <v>0.1</v>
       </c>
       <c r="O176">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P176">
         <v>0.1</v>
@@ -10282,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M177">
         <v>2</v>
@@ -10311,7 +10943,7 @@
         <v>100</v>
       </c>
       <c r="C178">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -10338,10 +10970,10 @@
         <v>0</v>
       </c>
       <c r="L178">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N178">
         <v>0.1</v>
@@ -10367,7 +10999,7 @@
         <v>100</v>
       </c>
       <c r="C179">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -10394,10 +11026,10 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M179">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N179">
         <v>0.1</v>
@@ -10423,7 +11055,7 @@
         <v>100</v>
       </c>
       <c r="C180">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -10450,10 +11082,10 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N180">
         <v>0.1</v>
@@ -10479,7 +11111,7 @@
         <v>100</v>
       </c>
       <c r="C181">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -10506,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M181">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N181">
         <v>0.1</v>
@@ -10562,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M182">
         <v>2</v>
@@ -10571,7 +11203,7 @@
         <v>0.1</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P182">
         <v>0.1</v>
@@ -10591,7 +11223,7 @@
         <v>100</v>
       </c>
       <c r="C183">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -10618,16 +11250,16 @@
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N183">
         <v>0.1</v>
       </c>
       <c r="O183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P183">
         <v>0.1</v>
@@ -10647,7 +11279,7 @@
         <v>100</v>
       </c>
       <c r="C184">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -10674,16 +11306,16 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M184">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N184">
         <v>0.1</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P184">
         <v>0.1</v>
@@ -10703,7 +11335,7 @@
         <v>100</v>
       </c>
       <c r="C185">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -10730,16 +11362,16 @@
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M185">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N185">
         <v>0.1</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P185">
         <v>0.1</v>
@@ -10759,7 +11391,7 @@
         <v>100</v>
       </c>
       <c r="C186">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -10786,16 +11418,16 @@
         <v>0</v>
       </c>
       <c r="L186">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M186">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N186">
         <v>0.1</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P186">
         <v>0.1</v>
@@ -10851,7 +11483,7 @@
         <v>0.1</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P187">
         <v>0.1</v>
@@ -10871,7 +11503,7 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -10901,13 +11533,13 @@
         <v>0.8</v>
       </c>
       <c r="M188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N188">
         <v>0.1</v>
       </c>
       <c r="O188">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P188">
         <v>0.1</v>
@@ -10927,7 +11559,7 @@
         <v>100</v>
       </c>
       <c r="C189">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -10957,13 +11589,13 @@
         <v>0.8</v>
       </c>
       <c r="M189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N189">
         <v>0.1</v>
       </c>
       <c r="O189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P189">
         <v>0.1</v>
@@ -10983,7 +11615,7 @@
         <v>100</v>
       </c>
       <c r="C190">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -11013,13 +11645,13 @@
         <v>0.8</v>
       </c>
       <c r="M190">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N190">
         <v>0.1</v>
       </c>
       <c r="O190">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P190">
         <v>0.1</v>
@@ -11039,7 +11671,7 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -11069,13 +11701,13 @@
         <v>0.8</v>
       </c>
       <c r="M191">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N191">
         <v>0.1</v>
       </c>
       <c r="O191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P191">
         <v>0.1</v>
@@ -11122,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M192">
         <v>2</v>
@@ -11131,7 +11763,7 @@
         <v>0.1</v>
       </c>
       <c r="O192">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P192">
         <v>0.1</v>
@@ -11151,7 +11783,7 @@
         <v>100</v>
       </c>
       <c r="C193">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -11178,16 +11810,16 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N193">
         <v>0.1</v>
       </c>
       <c r="O193">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P193">
         <v>0.1</v>
@@ -11207,7 +11839,7 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -11234,16 +11866,16 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N194">
         <v>0.1</v>
       </c>
       <c r="O194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P194">
         <v>0.1</v>
@@ -11263,7 +11895,7 @@
         <v>100</v>
       </c>
       <c r="C195">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -11290,16 +11922,16 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M195">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N195">
         <v>0.1</v>
       </c>
       <c r="O195">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P195">
         <v>0.1</v>
@@ -11319,7 +11951,7 @@
         <v>100</v>
       </c>
       <c r="C196">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -11346,16 +11978,16 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M196">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N196">
         <v>0.1</v>
       </c>
       <c r="O196">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P196">
         <v>0.1</v>
@@ -11402,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M197">
         <v>2</v>
@@ -11411,7 +12043,7 @@
         <v>0.1</v>
       </c>
       <c r="O197">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P197">
         <v>0.1</v>
@@ -11431,7 +12063,7 @@
         <v>100</v>
       </c>
       <c r="C198">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -11458,16 +12090,16 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N198">
         <v>0.1</v>
       </c>
       <c r="O198">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P198">
         <v>0.1</v>
@@ -11487,7 +12119,7 @@
         <v>100</v>
       </c>
       <c r="C199">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -11514,16 +12146,16 @@
         <v>0</v>
       </c>
       <c r="L199">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M199">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N199">
         <v>0.1</v>
       </c>
       <c r="O199">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P199">
         <v>0.1</v>
@@ -11543,7 +12175,7 @@
         <v>100</v>
       </c>
       <c r="C200">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -11570,16 +12202,16 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M200">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N200">
         <v>0.1</v>
       </c>
       <c r="O200">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P200">
         <v>0.1</v>
@@ -11599,7 +12231,7 @@
         <v>100</v>
       </c>
       <c r="C201">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -11626,16 +12258,16 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M201">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N201">
         <v>0.1</v>
       </c>
       <c r="O201">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P201">
         <v>0.1</v>
@@ -11682,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M202">
         <v>2</v>
@@ -11711,7 +12343,7 @@
         <v>100</v>
       </c>
       <c r="C203">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -11738,10 +12370,10 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N203">
         <v>0.1</v>
@@ -11767,7 +12399,7 @@
         <v>100</v>
       </c>
       <c r="C204">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -11794,10 +12426,10 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N204">
         <v>0.1</v>
@@ -11823,7 +12455,7 @@
         <v>100</v>
       </c>
       <c r="C205">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -11850,10 +12482,10 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M205">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N205">
         <v>0.1</v>
@@ -11879,7 +12511,7 @@
         <v>100</v>
       </c>
       <c r="C206">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -11906,10 +12538,10 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M206">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N206">
         <v>0.1</v>
@@ -11962,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M207">
         <v>2</v>
@@ -11971,7 +12603,7 @@
         <v>0.1</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P207">
         <v>0.1</v>
@@ -11991,7 +12623,7 @@
         <v>100</v>
       </c>
       <c r="C208">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -12018,16 +12650,16 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N208">
         <v>0.1</v>
       </c>
       <c r="O208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P208">
         <v>0.1</v>
@@ -12047,7 +12679,7 @@
         <v>100</v>
       </c>
       <c r="C209">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -12074,16 +12706,16 @@
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M209">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N209">
         <v>0.1</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P209">
         <v>0.1</v>
@@ -12103,7 +12735,7 @@
         <v>100</v>
       </c>
       <c r="C210">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -12130,16 +12762,16 @@
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M210">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N210">
         <v>0.1</v>
       </c>
       <c r="O210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P210">
         <v>0.1</v>
@@ -12159,7 +12791,7 @@
         <v>100</v>
       </c>
       <c r="C211">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -12186,16 +12818,16 @@
         <v>0</v>
       </c>
       <c r="L211">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M211">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N211">
         <v>0.1</v>
       </c>
       <c r="O211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P211">
         <v>0.1</v>
@@ -12251,7 +12883,7 @@
         <v>0.1</v>
       </c>
       <c r="O212">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P212">
         <v>0.1</v>
@@ -12271,7 +12903,7 @@
         <v>100</v>
       </c>
       <c r="C213">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -12301,13 +12933,13 @@
         <v>0.8</v>
       </c>
       <c r="M213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N213">
         <v>0.1</v>
       </c>
       <c r="O213">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P213">
         <v>0.1</v>
@@ -12327,7 +12959,7 @@
         <v>100</v>
       </c>
       <c r="C214">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -12357,13 +12989,13 @@
         <v>0.8</v>
       </c>
       <c r="M214">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N214">
         <v>0.1</v>
       </c>
       <c r="O214">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P214">
         <v>0.1</v>
@@ -12383,7 +13015,7 @@
         <v>100</v>
       </c>
       <c r="C215">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -12413,13 +13045,13 @@
         <v>0.8</v>
       </c>
       <c r="M215">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N215">
         <v>0.1</v>
       </c>
       <c r="O215">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P215">
         <v>0.1</v>
@@ -12439,7 +13071,7 @@
         <v>100</v>
       </c>
       <c r="C216">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -12469,13 +13101,13 @@
         <v>0.8</v>
       </c>
       <c r="M216">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N216">
         <v>0.1</v>
       </c>
       <c r="O216">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P216">
         <v>0.1</v>
@@ -12522,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M217">
         <v>2</v>
@@ -12531,7 +13163,7 @@
         <v>0.1</v>
       </c>
       <c r="O217">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P217">
         <v>0.1</v>
@@ -12551,7 +13183,7 @@
         <v>100</v>
       </c>
       <c r="C218">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -12578,16 +13210,16 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N218">
         <v>0.1</v>
       </c>
       <c r="O218">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P218">
         <v>0.1</v>
@@ -12607,7 +13239,7 @@
         <v>100</v>
       </c>
       <c r="C219">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -12634,16 +13266,16 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M219">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N219">
         <v>0.1</v>
       </c>
       <c r="O219">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P219">
         <v>0.1</v>
@@ -12663,7 +13295,7 @@
         <v>100</v>
       </c>
       <c r="C220">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -12690,16 +13322,16 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M220">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N220">
         <v>0.1</v>
       </c>
       <c r="O220">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P220">
         <v>0.1</v>
@@ -12719,7 +13351,7 @@
         <v>100</v>
       </c>
       <c r="C221">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -12746,16 +13378,16 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M221">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N221">
         <v>0.1</v>
       </c>
       <c r="O221">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P221">
         <v>0.1</v>
@@ -12802,7 +13434,7 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M222">
         <v>2</v>
@@ -12811,7 +13443,7 @@
         <v>0.1</v>
       </c>
       <c r="O222">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P222">
         <v>0.1</v>
@@ -12831,7 +13463,7 @@
         <v>100</v>
       </c>
       <c r="C223">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -12858,16 +13490,16 @@
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N223">
         <v>0.1</v>
       </c>
       <c r="O223">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P223">
         <v>0.1</v>
@@ -12887,7 +13519,7 @@
         <v>100</v>
       </c>
       <c r="C224">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -12914,16 +13546,16 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M224">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N224">
         <v>0.1</v>
       </c>
       <c r="O224">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P224">
         <v>0.1</v>
@@ -12943,7 +13575,7 @@
         <v>100</v>
       </c>
       <c r="C225">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -12970,16 +13602,16 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M225">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N225">
         <v>0.1</v>
       </c>
       <c r="O225">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P225">
         <v>0.1</v>
@@ -12999,7 +13631,7 @@
         <v>100</v>
       </c>
       <c r="C226">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -13026,16 +13658,16 @@
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M226">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N226">
         <v>0.1</v>
       </c>
       <c r="O226">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P226">
         <v>0.1</v>
@@ -13082,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M227">
         <v>2</v>
@@ -13111,7 +13743,7 @@
         <v>100</v>
       </c>
       <c r="C228">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -13138,10 +13770,10 @@
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N228">
         <v>0.1</v>
@@ -13167,7 +13799,7 @@
         <v>100</v>
       </c>
       <c r="C229">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -13194,10 +13826,10 @@
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M229">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N229">
         <v>0.1</v>
@@ -13223,7 +13855,7 @@
         <v>100</v>
       </c>
       <c r="C230">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -13250,10 +13882,10 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M230">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N230">
         <v>0.1</v>
@@ -13279,7 +13911,7 @@
         <v>100</v>
       </c>
       <c r="C231">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -13306,10 +13938,10 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M231">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N231">
         <v>0.1</v>
@@ -13362,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M232">
         <v>2</v>
@@ -13371,7 +14003,7 @@
         <v>0.1</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P232">
         <v>0.1</v>
@@ -13391,7 +14023,7 @@
         <v>100</v>
       </c>
       <c r="C233">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -13418,16 +14050,16 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N233">
         <v>0.1</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P233">
         <v>0.1</v>
@@ -13447,7 +14079,7 @@
         <v>100</v>
       </c>
       <c r="C234">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -13474,16 +14106,16 @@
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M234">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N234">
         <v>0.1</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P234">
         <v>0.1</v>
@@ -13503,7 +14135,7 @@
         <v>100</v>
       </c>
       <c r="C235">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -13530,16 +14162,16 @@
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M235">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N235">
         <v>0.1</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P235">
         <v>0.1</v>
@@ -13559,7 +14191,7 @@
         <v>100</v>
       </c>
       <c r="C236">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -13586,16 +14218,16 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="M236">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N236">
         <v>0.1</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P236">
         <v>0.1</v>
@@ -13651,7 +14283,7 @@
         <v>0.1</v>
       </c>
       <c r="O237">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P237">
         <v>0.1</v>
@@ -13671,7 +14303,7 @@
         <v>100</v>
       </c>
       <c r="C238">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -13701,13 +14333,13 @@
         <v>0.8</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N238">
         <v>0.1</v>
       </c>
       <c r="O238">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P238">
         <v>0.1</v>
@@ -13727,7 +14359,7 @@
         <v>100</v>
       </c>
       <c r="C239">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -13757,13 +14389,13 @@
         <v>0.8</v>
       </c>
       <c r="M239">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N239">
         <v>0.1</v>
       </c>
       <c r="O239">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P239">
         <v>0.1</v>
@@ -13783,7 +14415,7 @@
         <v>100</v>
       </c>
       <c r="C240">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -13813,13 +14445,13 @@
         <v>0.8</v>
       </c>
       <c r="M240">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N240">
         <v>0.1</v>
       </c>
       <c r="O240">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P240">
         <v>0.1</v>
@@ -13839,7 +14471,7 @@
         <v>100</v>
       </c>
       <c r="C241">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -13869,13 +14501,13 @@
         <v>0.8</v>
       </c>
       <c r="M241">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N241">
         <v>0.1</v>
       </c>
       <c r="O241">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P241">
         <v>0.1</v>
@@ -13922,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M242">
         <v>2</v>
@@ -13931,7 +14563,7 @@
         <v>0.1</v>
       </c>
       <c r="O242">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P242">
         <v>0.1</v>
@@ -13951,7 +14583,7 @@
         <v>100</v>
       </c>
       <c r="C243">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -13978,16 +14610,16 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N243">
         <v>0.1</v>
       </c>
       <c r="O243">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P243">
         <v>0.1</v>
@@ -14007,7 +14639,7 @@
         <v>100</v>
       </c>
       <c r="C244">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -14034,16 +14666,16 @@
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M244">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N244">
         <v>0.1</v>
       </c>
       <c r="O244">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P244">
         <v>0.1</v>
@@ -14063,7 +14695,7 @@
         <v>100</v>
       </c>
       <c r="C245">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -14090,16 +14722,16 @@
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M245">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N245">
         <v>0.1</v>
       </c>
       <c r="O245">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P245">
         <v>0.1</v>
@@ -14119,7 +14751,7 @@
         <v>100</v>
       </c>
       <c r="C246">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -14146,16 +14778,16 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="M246">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N246">
         <v>0.1</v>
       </c>
       <c r="O246">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P246">
         <v>0.1</v>
@@ -14202,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="L247">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M247">
         <v>2</v>
@@ -14211,7 +14843,7 @@
         <v>0.1</v>
       </c>
       <c r="O247">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P247">
         <v>0.1</v>
@@ -14231,7 +14863,7 @@
         <v>100</v>
       </c>
       <c r="C248">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -14258,16 +14890,16 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M248">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N248">
         <v>0.1</v>
       </c>
       <c r="O248">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P248">
         <v>0.1</v>
@@ -14287,7 +14919,7 @@
         <v>100</v>
       </c>
       <c r="C249">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -14314,16 +14946,16 @@
         <v>0</v>
       </c>
       <c r="L249">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M249">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N249">
         <v>0.1</v>
       </c>
       <c r="O249">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P249">
         <v>0.1</v>
@@ -14343,7 +14975,7 @@
         <v>100</v>
       </c>
       <c r="C250">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -14370,16 +15002,16 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M250">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N250">
         <v>0.1</v>
       </c>
       <c r="O250">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P250">
         <v>0.1</v>
@@ -14399,7 +15031,7 @@
         <v>100</v>
       </c>
       <c r="C251">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -14426,16 +15058,16 @@
         <v>0</v>
       </c>
       <c r="L251">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M251">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N251">
         <v>0.1</v>
       </c>
       <c r="O251">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P251">
         <v>0.1</v>
@@ -14482,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="L252">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M252">
         <v>100</v>
@@ -14538,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="L253">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M253">
         <v>2</v>
@@ -14594,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="L254">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M254">
         <v>2</v>
@@ -14650,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M255">
         <v>100</v>
@@ -14706,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M256">
         <v>2</v>
@@ -14762,7 +15394,7 @@
         <v>0</v>
       </c>
       <c r="L257">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="M257">
         <v>2</v>
@@ -14783,1127 +15415,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
-      <c r="A258">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>100</v>
-      </c>
-      <c r="C258">
-        <v>50</v>
-      </c>
-      <c r="D258">
-        <v>0</v>
-      </c>
-      <c r="E258">
-        <v>1</v>
-      </c>
-      <c r="F258">
-        <v>0.2</v>
-      </c>
-      <c r="G258">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>0.5</v>
-      </c>
-      <c r="I258">
-        <v>1</v>
-      </c>
-      <c r="J258">
-        <v>1</v>
-      </c>
-      <c r="K258">
-        <v>0</v>
-      </c>
-      <c r="L258">
-        <v>0.8</v>
-      </c>
-      <c r="M258">
-        <v>2</v>
-      </c>
-      <c r="N258">
-        <v>0.1</v>
-      </c>
-      <c r="O258">
-        <v>2</v>
-      </c>
-      <c r="P258">
-        <v>0.1</v>
-      </c>
-      <c r="Q258">
-        <v>0.9</v>
-      </c>
-      <c r="R258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18">
-      <c r="A259">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>100</v>
-      </c>
-      <c r="C259">
-        <v>100</v>
-      </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="F259">
-        <v>0.2</v>
-      </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>0.5</v>
-      </c>
-      <c r="I259">
-        <v>1</v>
-      </c>
-      <c r="J259">
-        <v>1</v>
-      </c>
-      <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259">
-        <v>0.8</v>
-      </c>
-      <c r="M259">
-        <v>2</v>
-      </c>
-      <c r="N259">
-        <v>0.1</v>
-      </c>
-      <c r="O259">
-        <v>2</v>
-      </c>
-      <c r="P259">
-        <v>0.1</v>
-      </c>
-      <c r="Q259">
-        <v>0.9</v>
-      </c>
-      <c r="R259">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18">
-      <c r="A260">
-        <v>258</v>
-      </c>
-      <c r="B260">
-        <v>100</v>
-      </c>
-      <c r="C260">
-        <v>150</v>
-      </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260">
-        <v>1</v>
-      </c>
-      <c r="F260">
-        <v>0.2</v>
-      </c>
-      <c r="G260">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>0.5</v>
-      </c>
-      <c r="I260">
-        <v>1</v>
-      </c>
-      <c r="J260">
-        <v>1</v>
-      </c>
-      <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260">
-        <v>0.8</v>
-      </c>
-      <c r="M260">
-        <v>2</v>
-      </c>
-      <c r="N260">
-        <v>0.1</v>
-      </c>
-      <c r="O260">
-        <v>2</v>
-      </c>
-      <c r="P260">
-        <v>0.1</v>
-      </c>
-      <c r="Q260">
-        <v>0.9</v>
-      </c>
-      <c r="R260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18">
-      <c r="A261">
-        <v>259</v>
-      </c>
-      <c r="B261">
-        <v>100</v>
-      </c>
-      <c r="C261">
-        <v>200</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>0.2</v>
-      </c>
-      <c r="G261">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>0.5</v>
-      </c>
-      <c r="I261">
-        <v>1</v>
-      </c>
-      <c r="J261">
-        <v>1</v>
-      </c>
-      <c r="K261">
-        <v>0</v>
-      </c>
-      <c r="L261">
-        <v>0.8</v>
-      </c>
-      <c r="M261">
-        <v>2</v>
-      </c>
-      <c r="N261">
-        <v>0.1</v>
-      </c>
-      <c r="O261">
-        <v>2</v>
-      </c>
-      <c r="P261">
-        <v>0.1</v>
-      </c>
-      <c r="Q261">
-        <v>0.9</v>
-      </c>
-      <c r="R261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18">
-      <c r="A262">
-        <v>260</v>
-      </c>
-      <c r="B262">
-        <v>100</v>
-      </c>
-      <c r="C262">
-        <v>250</v>
-      </c>
-      <c r="D262">
-        <v>0</v>
-      </c>
-      <c r="E262">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>0.2</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
-      </c>
-      <c r="H262">
-        <v>0.5</v>
-      </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
-      <c r="J262">
-        <v>1</v>
-      </c>
-      <c r="K262">
-        <v>0</v>
-      </c>
-      <c r="L262">
-        <v>0.8</v>
-      </c>
-      <c r="M262">
-        <v>2</v>
-      </c>
-      <c r="N262">
-        <v>0.1</v>
-      </c>
-      <c r="O262">
-        <v>2</v>
-      </c>
-      <c r="P262">
-        <v>0.1</v>
-      </c>
-      <c r="Q262">
-        <v>0.9</v>
-      </c>
-      <c r="R262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18">
-      <c r="A263">
-        <v>261</v>
-      </c>
-      <c r="B263">
-        <v>100</v>
-      </c>
-      <c r="C263">
-        <v>300</v>
-      </c>
-      <c r="D263">
-        <v>0</v>
-      </c>
-      <c r="E263">
-        <v>1</v>
-      </c>
-      <c r="F263">
-        <v>0.2</v>
-      </c>
-      <c r="G263">
-        <v>0</v>
-      </c>
-      <c r="H263">
-        <v>0.5</v>
-      </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
-      <c r="J263">
-        <v>1</v>
-      </c>
-      <c r="K263">
-        <v>0</v>
-      </c>
-      <c r="L263">
-        <v>0.8</v>
-      </c>
-      <c r="M263">
-        <v>2</v>
-      </c>
-      <c r="N263">
-        <v>0.1</v>
-      </c>
-      <c r="O263">
-        <v>2</v>
-      </c>
-      <c r="P263">
-        <v>0.1</v>
-      </c>
-      <c r="Q263">
-        <v>0.9</v>
-      </c>
-      <c r="R263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18">
-      <c r="A264">
-        <v>262</v>
-      </c>
-      <c r="B264">
-        <v>100</v>
-      </c>
-      <c r="C264">
-        <v>350</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>0.2</v>
-      </c>
-      <c r="G264">
-        <v>0</v>
-      </c>
-      <c r="H264">
-        <v>0.5</v>
-      </c>
-      <c r="I264">
-        <v>1</v>
-      </c>
-      <c r="J264">
-        <v>1</v>
-      </c>
-      <c r="K264">
-        <v>0</v>
-      </c>
-      <c r="L264">
-        <v>0.8</v>
-      </c>
-      <c r="M264">
-        <v>2</v>
-      </c>
-      <c r="N264">
-        <v>0.1</v>
-      </c>
-      <c r="O264">
-        <v>2</v>
-      </c>
-      <c r="P264">
-        <v>0.1</v>
-      </c>
-      <c r="Q264">
-        <v>0.9</v>
-      </c>
-      <c r="R264">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18">
-      <c r="A265">
-        <v>263</v>
-      </c>
-      <c r="B265">
-        <v>100</v>
-      </c>
-      <c r="C265">
-        <v>400</v>
-      </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265">
-        <v>1</v>
-      </c>
-      <c r="F265">
-        <v>0.2</v>
-      </c>
-      <c r="G265">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>0.5</v>
-      </c>
-      <c r="I265">
-        <v>1</v>
-      </c>
-      <c r="J265">
-        <v>1</v>
-      </c>
-      <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="L265">
-        <v>0.8</v>
-      </c>
-      <c r="M265">
-        <v>2</v>
-      </c>
-      <c r="N265">
-        <v>0.1</v>
-      </c>
-      <c r="O265">
-        <v>2</v>
-      </c>
-      <c r="P265">
-        <v>0.1</v>
-      </c>
-      <c r="Q265">
-        <v>0.9</v>
-      </c>
-      <c r="R265">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18">
-      <c r="A266">
-        <v>264</v>
-      </c>
-      <c r="B266">
-        <v>100</v>
-      </c>
-      <c r="C266">
-        <v>450</v>
-      </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266">
-        <v>1</v>
-      </c>
-      <c r="F266">
-        <v>0.2</v>
-      </c>
-      <c r="G266">
-        <v>0</v>
-      </c>
-      <c r="H266">
-        <v>0.5</v>
-      </c>
-      <c r="I266">
-        <v>1</v>
-      </c>
-      <c r="J266">
-        <v>1</v>
-      </c>
-      <c r="K266">
-        <v>0</v>
-      </c>
-      <c r="L266">
-        <v>0.8</v>
-      </c>
-      <c r="M266">
-        <v>2</v>
-      </c>
-      <c r="N266">
-        <v>0.1</v>
-      </c>
-      <c r="O266">
-        <v>2</v>
-      </c>
-      <c r="P266">
-        <v>0.1</v>
-      </c>
-      <c r="Q266">
-        <v>0.9</v>
-      </c>
-      <c r="R266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18">
-      <c r="A267">
-        <v>265</v>
-      </c>
-      <c r="B267">
-        <v>100</v>
-      </c>
-      <c r="C267">
-        <v>500</v>
-      </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
-        <v>1</v>
-      </c>
-      <c r="F267">
-        <v>0.2</v>
-      </c>
-      <c r="G267">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>0.5</v>
-      </c>
-      <c r="I267">
-        <v>1</v>
-      </c>
-      <c r="J267">
-        <v>1</v>
-      </c>
-      <c r="K267">
-        <v>0</v>
-      </c>
-      <c r="L267">
-        <v>0.8</v>
-      </c>
-      <c r="M267">
-        <v>2</v>
-      </c>
-      <c r="N267">
-        <v>0.1</v>
-      </c>
-      <c r="O267">
-        <v>2</v>
-      </c>
-      <c r="P267">
-        <v>0.1</v>
-      </c>
-      <c r="Q267">
-        <v>0.9</v>
-      </c>
-      <c r="R267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18">
-      <c r="A268">
-        <v>266</v>
-      </c>
-      <c r="B268">
-        <v>100</v>
-      </c>
-      <c r="C268">
-        <v>50</v>
-      </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268">
-        <v>1</v>
-      </c>
-      <c r="F268">
-        <v>0.2</v>
-      </c>
-      <c r="G268">
-        <v>1</v>
-      </c>
-      <c r="H268">
-        <v>0.5</v>
-      </c>
-      <c r="I268">
-        <v>1</v>
-      </c>
-      <c r="J268">
-        <v>1</v>
-      </c>
-      <c r="K268">
-        <v>0</v>
-      </c>
-      <c r="L268">
-        <v>0.8</v>
-      </c>
-      <c r="M268">
-        <v>2</v>
-      </c>
-      <c r="N268">
-        <v>0.1</v>
-      </c>
-      <c r="O268">
-        <v>2</v>
-      </c>
-      <c r="P268">
-        <v>0.1</v>
-      </c>
-      <c r="Q268">
-        <v>0.9</v>
-      </c>
-      <c r="R268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18">
-      <c r="A269">
-        <v>267</v>
-      </c>
-      <c r="B269">
-        <v>100</v>
-      </c>
-      <c r="C269">
-        <v>100</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269">
-        <v>1</v>
-      </c>
-      <c r="F269">
-        <v>0.2</v>
-      </c>
-      <c r="G269">
-        <v>1</v>
-      </c>
-      <c r="H269">
-        <v>0.5</v>
-      </c>
-      <c r="I269">
-        <v>1</v>
-      </c>
-      <c r="J269">
-        <v>1</v>
-      </c>
-      <c r="K269">
-        <v>0</v>
-      </c>
-      <c r="L269">
-        <v>0.8</v>
-      </c>
-      <c r="M269">
-        <v>2</v>
-      </c>
-      <c r="N269">
-        <v>0.1</v>
-      </c>
-      <c r="O269">
-        <v>2</v>
-      </c>
-      <c r="P269">
-        <v>0.1</v>
-      </c>
-      <c r="Q269">
-        <v>0.9</v>
-      </c>
-      <c r="R269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18">
-      <c r="A270">
-        <v>268</v>
-      </c>
-      <c r="B270">
-        <v>100</v>
-      </c>
-      <c r="C270">
-        <v>150</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
-        <v>1</v>
-      </c>
-      <c r="F270">
-        <v>0.2</v>
-      </c>
-      <c r="G270">
-        <v>1</v>
-      </c>
-      <c r="H270">
-        <v>0.5</v>
-      </c>
-      <c r="I270">
-        <v>1</v>
-      </c>
-      <c r="J270">
-        <v>1</v>
-      </c>
-      <c r="K270">
-        <v>0</v>
-      </c>
-      <c r="L270">
-        <v>0.8</v>
-      </c>
-      <c r="M270">
-        <v>2</v>
-      </c>
-      <c r="N270">
-        <v>0.1</v>
-      </c>
-      <c r="O270">
-        <v>2</v>
-      </c>
-      <c r="P270">
-        <v>0.1</v>
-      </c>
-      <c r="Q270">
-        <v>0.9</v>
-      </c>
-      <c r="R270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18">
-      <c r="A271">
-        <v>269</v>
-      </c>
-      <c r="B271">
-        <v>100</v>
-      </c>
-      <c r="C271">
-        <v>200</v>
-      </c>
-      <c r="D271">
-        <v>0</v>
-      </c>
-      <c r="E271">
-        <v>1</v>
-      </c>
-      <c r="F271">
-        <v>0.2</v>
-      </c>
-      <c r="G271">
-        <v>1</v>
-      </c>
-      <c r="H271">
-        <v>0.5</v>
-      </c>
-      <c r="I271">
-        <v>1</v>
-      </c>
-      <c r="J271">
-        <v>1</v>
-      </c>
-      <c r="K271">
-        <v>0</v>
-      </c>
-      <c r="L271">
-        <v>0.8</v>
-      </c>
-      <c r="M271">
-        <v>2</v>
-      </c>
-      <c r="N271">
-        <v>0.1</v>
-      </c>
-      <c r="O271">
-        <v>2</v>
-      </c>
-      <c r="P271">
-        <v>0.1</v>
-      </c>
-      <c r="Q271">
-        <v>0.9</v>
-      </c>
-      <c r="R271">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18">
-      <c r="A272">
-        <v>270</v>
-      </c>
-      <c r="B272">
-        <v>100</v>
-      </c>
-      <c r="C272">
-        <v>250</v>
-      </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272">
-        <v>1</v>
-      </c>
-      <c r="F272">
-        <v>0.2</v>
-      </c>
-      <c r="G272">
-        <v>1</v>
-      </c>
-      <c r="H272">
-        <v>0.5</v>
-      </c>
-      <c r="I272">
-        <v>1</v>
-      </c>
-      <c r="J272">
-        <v>1</v>
-      </c>
-      <c r="K272">
-        <v>0</v>
-      </c>
-      <c r="L272">
-        <v>0.8</v>
-      </c>
-      <c r="M272">
-        <v>2</v>
-      </c>
-      <c r="N272">
-        <v>0.1</v>
-      </c>
-      <c r="O272">
-        <v>2</v>
-      </c>
-      <c r="P272">
-        <v>0.1</v>
-      </c>
-      <c r="Q272">
-        <v>0.9</v>
-      </c>
-      <c r="R272">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
-      <c r="A273">
-        <v>271</v>
-      </c>
-      <c r="B273">
-        <v>100</v>
-      </c>
-      <c r="C273">
-        <v>300</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273">
-        <v>1</v>
-      </c>
-      <c r="F273">
-        <v>0.2</v>
-      </c>
-      <c r="G273">
-        <v>1</v>
-      </c>
-      <c r="H273">
-        <v>0.5</v>
-      </c>
-      <c r="I273">
-        <v>1</v>
-      </c>
-      <c r="J273">
-        <v>1</v>
-      </c>
-      <c r="K273">
-        <v>0</v>
-      </c>
-      <c r="L273">
-        <v>0.8</v>
-      </c>
-      <c r="M273">
-        <v>2</v>
-      </c>
-      <c r="N273">
-        <v>0.1</v>
-      </c>
-      <c r="O273">
-        <v>2</v>
-      </c>
-      <c r="P273">
-        <v>0.1</v>
-      </c>
-      <c r="Q273">
-        <v>0.9</v>
-      </c>
-      <c r="R273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
-      <c r="A274">
-        <v>272</v>
-      </c>
-      <c r="B274">
-        <v>100</v>
-      </c>
-      <c r="C274">
-        <v>350</v>
-      </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
-        <v>1</v>
-      </c>
-      <c r="F274">
-        <v>0.2</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-      <c r="H274">
-        <v>0.5</v>
-      </c>
-      <c r="I274">
-        <v>1</v>
-      </c>
-      <c r="J274">
-        <v>1</v>
-      </c>
-      <c r="K274">
-        <v>0</v>
-      </c>
-      <c r="L274">
-        <v>0.8</v>
-      </c>
-      <c r="M274">
-        <v>2</v>
-      </c>
-      <c r="N274">
-        <v>0.1</v>
-      </c>
-      <c r="O274">
-        <v>2</v>
-      </c>
-      <c r="P274">
-        <v>0.1</v>
-      </c>
-      <c r="Q274">
-        <v>0.9</v>
-      </c>
-      <c r="R274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
-      <c r="A275">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>100</v>
-      </c>
-      <c r="C275">
-        <v>400</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275">
-        <v>1</v>
-      </c>
-      <c r="F275">
-        <v>0.2</v>
-      </c>
-      <c r="G275">
-        <v>1</v>
-      </c>
-      <c r="H275">
-        <v>0.5</v>
-      </c>
-      <c r="I275">
-        <v>1</v>
-      </c>
-      <c r="J275">
-        <v>1</v>
-      </c>
-      <c r="K275">
-        <v>0</v>
-      </c>
-      <c r="L275">
-        <v>0.8</v>
-      </c>
-      <c r="M275">
-        <v>2</v>
-      </c>
-      <c r="N275">
-        <v>0.1</v>
-      </c>
-      <c r="O275">
-        <v>2</v>
-      </c>
-      <c r="P275">
-        <v>0.1</v>
-      </c>
-      <c r="Q275">
-        <v>0.9</v>
-      </c>
-      <c r="R275">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18">
-      <c r="A276">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>100</v>
-      </c>
-      <c r="C276">
-        <v>450</v>
-      </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>0.2</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-      <c r="H276">
-        <v>0.5</v>
-      </c>
-      <c r="I276">
-        <v>1</v>
-      </c>
-      <c r="J276">
-        <v>1</v>
-      </c>
-      <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276">
-        <v>0.8</v>
-      </c>
-      <c r="M276">
-        <v>2</v>
-      </c>
-      <c r="N276">
-        <v>0.1</v>
-      </c>
-      <c r="O276">
-        <v>2</v>
-      </c>
-      <c r="P276">
-        <v>0.1</v>
-      </c>
-      <c r="Q276">
-        <v>0.9</v>
-      </c>
-      <c r="R276">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
-      <c r="A277">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>100</v>
-      </c>
-      <c r="C277">
-        <v>500</v>
-      </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>0.2</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-      <c r="H277">
-        <v>0.5</v>
-      </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
-      <c r="J277">
-        <v>1</v>
-      </c>
-      <c r="K277">
-        <v>0</v>
-      </c>
-      <c r="L277">
-        <v>0.8</v>
-      </c>
-      <c r="M277">
-        <v>2</v>
-      </c>
-      <c r="N277">
-        <v>0.1</v>
-      </c>
-      <c r="O277">
-        <v>2</v>
-      </c>
-      <c r="P277">
-        <v>0.1</v>
-      </c>
-      <c r="Q277">
-        <v>0.9</v>
-      </c>
-      <c r="R277">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>